--- a/sitebytraitmatrix_inv2013.xlsx
+++ b/sitebytraitmatrix_inv2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="-15" windowWidth="21225" windowHeight="14040" activeTab="1"/>
+    <workbookView xWindow="9825" yWindow="-15" windowWidth="18990" windowHeight="14040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sitebytraitmatrix_inv2013" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="190">
   <si>
     <t>Dispersal.unit.dry.mass</t>
   </si>
@@ -579,6 +579,12 @@
   </si>
   <si>
     <t>Wood dry mass per total dry mass</t>
+  </si>
+  <si>
+    <t>Leaf weight ratio</t>
+  </si>
+  <si>
+    <t>RGR</t>
   </si>
 </sst>
 </file>
@@ -1409,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BK6" sqref="A1:BK54"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11733,10 +11739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V35" sqref="V35"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L4" sqref="A1:W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11745,29 +11751,26 @@
     <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>169</v>
       </c>
@@ -11775,67 +11778,64 @@
         <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="P1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W1" t="s">
-        <v>186</v>
-      </c>
-      <c r="X1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -11849,67 +11849,64 @@
         <v>19.09</v>
       </c>
       <c r="E2">
-        <v>0.35</v>
+        <v>10.137499999999999</v>
       </c>
       <c r="F2">
-        <v>95.36</v>
+        <v>0.245</v>
       </c>
       <c r="G2">
-        <v>3.085</v>
+        <v>15.64</v>
       </c>
       <c r="H2">
-        <v>0.245</v>
+        <v>14.44</v>
       </c>
       <c r="I2">
-        <v>15.64</v>
+        <v>273.71499999999997</v>
       </c>
       <c r="J2">
-        <v>14.44</v>
+        <v>1.335</v>
       </c>
       <c r="K2">
-        <v>273.71499999999997</v>
+        <v>11.62</v>
       </c>
       <c r="L2">
-        <v>1.335</v>
+        <v>25.5</v>
       </c>
       <c r="M2">
-        <v>11.62</v>
+        <v>196.74666666666701</v>
       </c>
       <c r="N2">
-        <v>25.5</v>
+        <v>135.053333333333</v>
       </c>
       <c r="O2">
-        <v>196.74666666666701</v>
+        <v>0.18</v>
       </c>
       <c r="P2">
-        <v>135.053333333333</v>
+        <v>2.34</v>
       </c>
       <c r="Q2">
-        <v>2.34</v>
+        <v>4</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>12020.7771428571</v>
       </c>
       <c r="S2">
-        <v>12020.7771428571</v>
+        <v>99373.535000000003</v>
       </c>
       <c r="T2">
-        <v>99373.535000000003</v>
+        <v>17.7</v>
       </c>
       <c r="U2">
-        <v>17.7</v>
+        <v>79.176666666666705</v>
       </c>
       <c r="V2">
-        <v>79.176666666666705</v>
+        <v>235.96</v>
       </c>
       <c r="W2">
-        <v>235.96</v>
-      </c>
-      <c r="X2">
         <v>38.134999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -11923,67 +11920,64 @@
         <v>24.175000000000001</v>
       </c>
       <c r="E3">
-        <v>0.56000000000000005</v>
+        <v>17.285</v>
       </c>
       <c r="F3">
-        <v>31.9716666666667</v>
+        <v>0.26</v>
       </c>
       <c r="G3">
-        <v>2.5049999999999999</v>
+        <v>6.69</v>
       </c>
       <c r="H3">
-        <v>0.26</v>
+        <v>10.3066666666667</v>
       </c>
       <c r="I3">
-        <v>6.69</v>
+        <v>1423.2525000000001</v>
       </c>
       <c r="J3">
-        <v>10.3066666666667</v>
+        <v>1.1866666666666701</v>
       </c>
       <c r="K3">
-        <v>1423.2525000000001</v>
-      </c>
-      <c r="L3">
-        <v>1.1866666666666701</v>
+        <v>7.14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
       </c>
       <c r="M3">
-        <v>7.14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
+        <v>474.21666666666698</v>
+      </c>
+      <c r="N3">
+        <v>72.19</v>
       </c>
       <c r="O3">
-        <v>474.21666666666698</v>
+        <v>0.18</v>
       </c>
       <c r="P3">
-        <v>72.19</v>
+        <v>1.52</v>
       </c>
       <c r="Q3">
-        <v>1.52</v>
+        <v>14</v>
       </c>
       <c r="R3">
-        <v>14</v>
+        <v>2288.00714285714</v>
       </c>
       <c r="S3">
-        <v>2288.00714285714</v>
+        <v>1440771.69</v>
       </c>
       <c r="T3">
-        <v>1440771.69</v>
+        <v>16.3</v>
       </c>
       <c r="U3">
-        <v>16.3</v>
+        <v>79.163333333333298</v>
       </c>
       <c r="V3">
-        <v>79.163333333333298</v>
+        <v>234.62</v>
       </c>
       <c r="W3">
-        <v>234.62</v>
-      </c>
-      <c r="X3">
         <v>46.284999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -11997,67 +11991,64 @@
         <v>23.843333333333302</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>3.86</v>
       </c>
       <c r="F4">
-        <v>11.17</v>
+        <v>0.27</v>
       </c>
       <c r="G4">
-        <v>0.3</v>
+        <v>9.3625000000000007</v>
       </c>
       <c r="H4">
-        <v>0.27</v>
+        <v>7.7366666666666699</v>
       </c>
       <c r="I4">
-        <v>9.3625000000000007</v>
+        <v>866.45399999999995</v>
       </c>
       <c r="J4">
-        <v>7.7366666666666699</v>
+        <v>1.59</v>
       </c>
       <c r="K4">
-        <v>866.45399999999995</v>
+        <v>9.64</v>
       </c>
       <c r="L4">
-        <v>1.59</v>
+        <v>24.14</v>
       </c>
       <c r="M4">
-        <v>9.64</v>
+        <v>48.65</v>
       </c>
       <c r="N4">
-        <v>24.14</v>
+        <v>245.07</v>
       </c>
       <c r="O4">
-        <v>48.65</v>
+        <v>0.21333333333333299</v>
       </c>
       <c r="P4">
-        <v>245.07</v>
+        <v>2.7050000000000001</v>
       </c>
       <c r="Q4">
-        <v>2.7050000000000001</v>
+        <v>14</v>
       </c>
       <c r="R4">
-        <v>14</v>
+        <v>5842.0628571428597</v>
       </c>
       <c r="S4">
-        <v>5842.0628571428597</v>
+        <v>19056.037499999999</v>
       </c>
       <c r="T4">
-        <v>19056.037499999999</v>
+        <v>20.677499999999998</v>
       </c>
       <c r="U4">
-        <v>20.677499999999998</v>
+        <v>0.24333333333333301</v>
       </c>
       <c r="V4">
-        <v>0.24333333333333301</v>
+        <v>231.75</v>
       </c>
       <c r="W4">
-        <v>231.75</v>
-      </c>
-      <c r="X4">
         <v>71.484999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -12070,68 +12061,65 @@
       <c r="D5">
         <v>15.07</v>
       </c>
-      <c r="E5" t="s">
-        <v>64</v>
+      <c r="E5">
+        <v>87.28</v>
       </c>
       <c r="F5">
-        <v>557.42999999999995</v>
+        <v>0.37</v>
       </c>
       <c r="G5">
-        <v>37.619999999999997</v>
+        <v>2.54</v>
       </c>
       <c r="H5">
-        <v>0.37</v>
+        <v>10.36</v>
       </c>
       <c r="I5">
-        <v>2.54</v>
+        <v>2200</v>
       </c>
       <c r="J5">
-        <v>10.36</v>
-      </c>
-      <c r="K5">
-        <v>2200</v>
-      </c>
-      <c r="L5">
         <v>0.69</v>
       </c>
-      <c r="M5" t="s">
-        <v>64</v>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5">
+        <v>48.475000000000001</v>
       </c>
       <c r="N5" t="s">
         <v>64</v>
       </c>
-      <c r="O5">
-        <v>48.475000000000001</v>
+      <c r="O5" t="s">
+        <v>64</v>
       </c>
       <c r="P5" t="s">
         <v>64</v>
       </c>
-      <c r="Q5" t="s">
-        <v>64</v>
+      <c r="Q5">
+        <v>18</v>
       </c>
       <c r="R5">
-        <v>18</v>
+        <v>1132.9974999999999</v>
       </c>
       <c r="S5">
-        <v>1132.9974999999999</v>
-      </c>
-      <c r="T5">
         <v>3480.05</v>
       </c>
+      <c r="T5" t="s">
+        <v>64</v>
+      </c>
       <c r="U5" t="s">
         <v>64</v>
       </c>
       <c r="V5" t="s">
         <v>64</v>
       </c>
-      <c r="W5" t="s">
-        <v>64</v>
-      </c>
-      <c r="X5">
+      <c r="W5">
         <v>12.72</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -12145,67 +12133,64 @@
         <v>16.574000000000002</v>
       </c>
       <c r="E6">
-        <v>0.14000000000000001</v>
+        <v>2.9460000000000002</v>
       </c>
       <c r="F6">
-        <v>248.32333333333301</v>
+        <v>0.22666666666666699</v>
       </c>
       <c r="G6">
-        <v>1.68</v>
+        <v>13.2283333333333</v>
       </c>
       <c r="H6">
-        <v>0.22666666666666699</v>
+        <v>10.981999999999999</v>
       </c>
       <c r="I6">
-        <v>13.2283333333333</v>
+        <v>540.82166666666706</v>
       </c>
       <c r="J6">
-        <v>10.981999999999999</v>
+        <v>1.4366666666666701</v>
       </c>
       <c r="K6">
-        <v>540.82166666666706</v>
+        <v>17.43</v>
       </c>
       <c r="L6">
-        <v>1.4366666666666701</v>
+        <v>24.82</v>
       </c>
       <c r="M6">
-        <v>17.43</v>
+        <v>395.98777777777798</v>
       </c>
       <c r="N6">
-        <v>24.82</v>
+        <v>290.61</v>
       </c>
       <c r="O6">
-        <v>395.98777777777798</v>
+        <v>0.21</v>
       </c>
       <c r="P6">
-        <v>290.61</v>
+        <v>2.0674999999999999</v>
       </c>
       <c r="Q6">
-        <v>2.0674999999999999</v>
+        <v>7</v>
       </c>
       <c r="R6">
-        <v>7</v>
+        <v>9374.5840000000007</v>
       </c>
       <c r="S6">
-        <v>9374.5840000000007</v>
+        <v>27007.492222222201</v>
       </c>
       <c r="T6">
-        <v>27007.492222222201</v>
+        <v>16.7783333333333</v>
       </c>
       <c r="U6">
-        <v>16.7783333333333</v>
+        <v>0.2475</v>
       </c>
       <c r="V6">
-        <v>0.2475</v>
+        <v>174.815</v>
       </c>
       <c r="W6">
-        <v>174.815</v>
-      </c>
-      <c r="X6">
         <v>19.95</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -12218,68 +12203,65 @@
       <c r="D7">
         <v>17.86</v>
       </c>
-      <c r="E7" t="s">
-        <v>64</v>
+      <c r="E7">
+        <v>10.456666666666701</v>
       </c>
       <c r="F7">
-        <v>28.682500000000001</v>
+        <v>0.245</v>
       </c>
       <c r="G7">
-        <v>1.35</v>
+        <v>20.586666666666702</v>
       </c>
       <c r="H7">
-        <v>0.245</v>
+        <v>15.82</v>
       </c>
       <c r="I7">
-        <v>20.586666666666702</v>
+        <v>79.353333333333296</v>
       </c>
       <c r="J7">
-        <v>15.82</v>
-      </c>
-      <c r="K7">
-        <v>79.353333333333296</v>
+        <v>1.2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
       </c>
       <c r="L7">
-        <v>1.2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>64</v>
+        <v>25.5</v>
+      </c>
+      <c r="M7">
+        <v>42.272500000000001</v>
       </c>
       <c r="N7">
-        <v>25.5</v>
+        <v>260.77999999999997</v>
       </c>
       <c r="O7">
-        <v>42.272500000000001</v>
+        <v>0.17</v>
       </c>
       <c r="P7">
-        <v>260.77999999999997</v>
+        <v>2.23</v>
       </c>
       <c r="Q7">
-        <v>2.23</v>
+        <v>8.6666666666666696</v>
       </c>
       <c r="R7">
-        <v>8.6666666666666696</v>
+        <v>19520.466</v>
       </c>
       <c r="S7">
-        <v>19520.466</v>
+        <v>30948.546666666702</v>
       </c>
       <c r="T7">
-        <v>30948.546666666702</v>
+        <v>29.503333333333298</v>
       </c>
       <c r="U7">
-        <v>29.503333333333298</v>
+        <v>0.31</v>
       </c>
       <c r="V7">
-        <v>0.31</v>
+        <v>105.13</v>
       </c>
       <c r="W7">
-        <v>105.13</v>
-      </c>
-      <c r="X7">
         <v>38.549999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -12292,68 +12274,65 @@
       <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
-        <v>64</v>
+      <c r="E8">
+        <v>0.8</v>
       </c>
       <c r="F8">
-        <v>341.14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
+        <v>0.22</v>
+      </c>
+      <c r="G8">
+        <v>19.2</v>
       </c>
       <c r="H8">
-        <v>0.22</v>
+        <v>10.09</v>
       </c>
       <c r="I8">
-        <v>19.2</v>
+        <v>1731.73</v>
       </c>
       <c r="J8">
-        <v>10.09</v>
-      </c>
-      <c r="K8">
-        <v>1731.73</v>
-      </c>
-      <c r="L8">
         <v>0.47</v>
       </c>
-      <c r="M8" t="s">
-        <v>64</v>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8">
+        <v>71.010000000000005</v>
       </c>
       <c r="N8" t="s">
         <v>64</v>
       </c>
       <c r="O8">
-        <v>71.010000000000005</v>
+        <v>0.21</v>
       </c>
       <c r="P8" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" t="s">
-        <v>64</v>
+      <c r="Q8">
+        <v>0.31</v>
       </c>
       <c r="R8">
         <v>0.31</v>
       </c>
       <c r="S8">
-        <v>0.31</v>
+        <v>40193.599999999999</v>
       </c>
       <c r="T8">
-        <v>40193.599999999999</v>
-      </c>
-      <c r="U8">
         <v>18.8</v>
       </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
       <c r="V8" t="s">
         <v>64</v>
       </c>
       <c r="W8" t="s">
         <v>64</v>
       </c>
-      <c r="X8" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -12366,38 +12345,38 @@
       <c r="D9">
         <v>15.07</v>
       </c>
-      <c r="E9" t="s">
-        <v>64</v>
+      <c r="E9">
+        <v>87.28</v>
       </c>
       <c r="F9">
-        <v>826.07</v>
+        <v>0.37</v>
       </c>
       <c r="G9">
-        <v>37.619999999999997</v>
+        <v>2.54</v>
       </c>
       <c r="H9">
-        <v>0.37</v>
+        <v>10.36</v>
       </c>
       <c r="I9">
-        <v>2.54</v>
+        <v>2200</v>
       </c>
       <c r="J9">
-        <v>10.36</v>
-      </c>
-      <c r="K9">
-        <v>2200</v>
-      </c>
-      <c r="L9">
         <v>0.69</v>
       </c>
-      <c r="M9" t="s">
-        <v>64</v>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9">
+        <v>58.84</v>
       </c>
       <c r="N9" t="s">
         <v>64</v>
       </c>
-      <c r="O9">
-        <v>58.84</v>
+      <c r="O9" t="s">
+        <v>64</v>
       </c>
       <c r="P9" t="s">
         <v>64</v>
@@ -12405,29 +12384,26 @@
       <c r="Q9" t="s">
         <v>64</v>
       </c>
-      <c r="R9" t="s">
-        <v>64</v>
+      <c r="R9">
+        <v>0.63500000000000001</v>
       </c>
       <c r="S9">
-        <v>0.63500000000000001</v>
+        <v>38342.550000000003</v>
       </c>
       <c r="T9">
-        <v>38342.550000000003</v>
-      </c>
-      <c r="U9">
         <v>17</v>
       </c>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
       <c r="V9" t="s">
         <v>64</v>
       </c>
-      <c r="W9" t="s">
-        <v>64</v>
-      </c>
-      <c r="X9">
+      <c r="W9">
         <v>12.72</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -12441,67 +12417,64 @@
         <v>21.274999999999999</v>
       </c>
       <c r="E10">
-        <v>0.4</v>
+        <v>10.862</v>
       </c>
       <c r="F10">
-        <v>54.616666666666703</v>
+        <v>0.19</v>
       </c>
       <c r="G10">
-        <v>0.96333333333333304</v>
+        <v>9.5066666666666695</v>
       </c>
       <c r="H10">
-        <v>0.19</v>
+        <v>11.3433333333333</v>
       </c>
       <c r="I10">
-        <v>9.5066666666666695</v>
+        <v>480.108</v>
       </c>
       <c r="J10">
-        <v>11.3433333333333</v>
-      </c>
-      <c r="K10">
-        <v>480.108</v>
-      </c>
-      <c r="L10">
         <v>2.62</v>
       </c>
-      <c r="M10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" t="s">
-        <v>64</v>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10">
+        <v>646.96500000000003</v>
+      </c>
+      <c r="N10">
+        <v>139.01</v>
       </c>
       <c r="O10">
-        <v>646.96500000000003</v>
+        <v>0.2225</v>
       </c>
       <c r="P10">
-        <v>139.01</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="Q10">
-        <v>0.68500000000000005</v>
+        <v>14</v>
       </c>
       <c r="R10">
-        <v>14</v>
+        <v>7392.1450000000004</v>
       </c>
       <c r="S10">
-        <v>7392.1450000000004</v>
+        <v>55043.006666666697</v>
       </c>
       <c r="T10">
-        <v>55043.006666666697</v>
+        <v>18.383333333333301</v>
       </c>
       <c r="U10">
-        <v>18.383333333333301</v>
-      </c>
-      <c r="V10">
         <v>40.06</v>
       </c>
-      <c r="W10" t="s">
-        <v>64</v>
-      </c>
-      <c r="X10">
+      <c r="V10" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10">
         <v>59.23</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -12517,65 +12490,62 @@
       <c r="E11" t="s">
         <v>64</v>
       </c>
-      <c r="F11">
-        <v>60.4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <v>2.56</v>
       </c>
       <c r="H11" t="s">
         <v>64</v>
       </c>
       <c r="I11">
-        <v>2.56</v>
+        <v>0.25</v>
       </c>
       <c r="J11" t="s">
         <v>64</v>
       </c>
-      <c r="K11">
-        <v>0.25</v>
+      <c r="K11" t="s">
+        <v>64</v>
       </c>
       <c r="L11" t="s">
         <v>64</v>
       </c>
-      <c r="M11" t="s">
-        <v>64</v>
+      <c r="M11">
+        <v>1068.27</v>
       </c>
       <c r="N11" t="s">
         <v>64</v>
       </c>
-      <c r="O11">
-        <v>1068.27</v>
+      <c r="O11" t="s">
+        <v>64</v>
       </c>
       <c r="P11" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" t="s">
-        <v>64</v>
+      <c r="Q11">
+        <v>24</v>
       </c>
       <c r="R11">
-        <v>24</v>
+        <v>0.12</v>
       </c>
       <c r="S11">
-        <v>0.12</v>
-      </c>
-      <c r="T11">
         <v>49581.33</v>
       </c>
-      <c r="U11" t="s">
-        <v>64</v>
-      </c>
-      <c r="V11">
+      <c r="T11" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11">
         <v>119.41</v>
       </c>
+      <c r="V11" t="s">
+        <v>64</v>
+      </c>
       <c r="W11" t="s">
         <v>64</v>
       </c>
-      <c r="X11" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -12589,67 +12559,64 @@
         <v>20.47625</v>
       </c>
       <c r="E12">
-        <v>0.56000000000000005</v>
+        <v>13.275</v>
       </c>
       <c r="F12">
-        <v>111.211538461538</v>
+        <v>0.25166666666666698</v>
       </c>
       <c r="G12">
-        <v>1.6140000000000001</v>
+        <v>13.8054545454545</v>
       </c>
       <c r="H12">
-        <v>0.25166666666666698</v>
+        <v>15.57</v>
       </c>
       <c r="I12">
-        <v>13.8054545454545</v>
+        <v>364.95800000000003</v>
       </c>
       <c r="J12">
-        <v>15.57</v>
+        <v>5.6933333333333298</v>
       </c>
       <c r="K12">
-        <v>364.95800000000003</v>
+        <v>10.78</v>
       </c>
       <c r="L12">
-        <v>5.6933333333333298</v>
+        <v>25.5</v>
       </c>
       <c r="M12">
-        <v>10.78</v>
+        <v>316.10461538461499</v>
       </c>
       <c r="N12">
-        <v>25.5</v>
+        <v>211.946666666667</v>
       </c>
       <c r="O12">
-        <v>316.10461538461499</v>
+        <v>0.2</v>
       </c>
       <c r="P12">
-        <v>211.946666666667</v>
+        <v>1.7625</v>
       </c>
       <c r="Q12">
-        <v>1.7625</v>
+        <v>12.5714285714286</v>
       </c>
       <c r="R12">
-        <v>12.5714285714286</v>
+        <v>10272.168</v>
       </c>
       <c r="S12">
-        <v>10272.168</v>
+        <v>49605.157692307701</v>
       </c>
       <c r="T12">
-        <v>49605.157692307701</v>
+        <v>26.52</v>
       </c>
       <c r="U12">
-        <v>26.52</v>
+        <v>20.105</v>
       </c>
       <c r="V12">
-        <v>20.105</v>
+        <v>137.5</v>
       </c>
       <c r="W12">
-        <v>137.5</v>
-      </c>
-      <c r="X12">
         <v>46.962000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -12662,38 +12629,38 @@
       <c r="D13">
         <v>15.07</v>
       </c>
-      <c r="E13" t="s">
-        <v>64</v>
+      <c r="E13">
+        <v>54.57</v>
       </c>
       <c r="F13">
-        <v>414.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G13">
-        <v>19.574999999999999</v>
+        <v>12.42</v>
       </c>
       <c r="H13">
-        <v>0.28000000000000003</v>
+        <v>10.36</v>
       </c>
       <c r="I13">
-        <v>12.42</v>
+        <v>2200</v>
       </c>
       <c r="J13">
-        <v>10.36</v>
-      </c>
-      <c r="K13">
-        <v>2200</v>
-      </c>
-      <c r="L13">
         <v>1.655</v>
       </c>
-      <c r="M13" t="s">
-        <v>64</v>
+      <c r="K13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13">
+        <v>67.965000000000003</v>
       </c>
       <c r="N13" t="s">
         <v>64</v>
       </c>
       <c r="O13">
-        <v>67.965000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="P13" t="s">
         <v>64</v>
@@ -12701,29 +12668,26 @@
       <c r="Q13" t="s">
         <v>64</v>
       </c>
-      <c r="R13" t="s">
-        <v>64</v>
+      <c r="R13">
+        <v>0.22500000000000001</v>
       </c>
       <c r="S13">
-        <v>0.22500000000000001</v>
+        <v>85125.98</v>
       </c>
       <c r="T13">
-        <v>85125.98</v>
-      </c>
-      <c r="U13">
         <v>19.399999999999999</v>
       </c>
+      <c r="U13" t="s">
+        <v>64</v>
+      </c>
       <c r="V13" t="s">
         <v>64</v>
       </c>
-      <c r="W13" t="s">
-        <v>64</v>
-      </c>
-      <c r="X13">
+      <c r="W13">
         <v>31.695</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -12737,67 +12701,64 @@
         <v>21.504000000000001</v>
       </c>
       <c r="E14">
-        <v>0.35</v>
+        <v>33.648000000000003</v>
       </c>
       <c r="F14">
-        <v>406.39571428571401</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="G14">
-        <v>11.077500000000001</v>
+        <v>10.125999999999999</v>
       </c>
       <c r="H14">
-        <v>0.27200000000000002</v>
+        <v>12.59</v>
       </c>
       <c r="I14">
-        <v>10.125999999999999</v>
+        <v>695.76499999999999</v>
       </c>
       <c r="J14">
-        <v>12.59</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="K14">
-        <v>695.76499999999999</v>
+        <v>17.43</v>
       </c>
       <c r="L14">
-        <v>0.97599999999999998</v>
+        <v>25.5</v>
       </c>
       <c r="M14">
-        <v>17.43</v>
+        <v>162.05428571428601</v>
       </c>
       <c r="N14">
-        <v>25.5</v>
+        <v>180.04</v>
       </c>
       <c r="O14">
-        <v>162.05428571428601</v>
+        <v>0.21333333333333299</v>
       </c>
       <c r="P14">
-        <v>180.04</v>
+        <v>2.34</v>
       </c>
       <c r="Q14">
-        <v>2.34</v>
+        <v>9</v>
       </c>
       <c r="R14">
-        <v>9</v>
+        <v>14302.394285714299</v>
       </c>
       <c r="S14">
-        <v>14302.394285714299</v>
+        <v>60213.987142857099</v>
       </c>
       <c r="T14">
-        <v>60213.987142857099</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="U14">
-        <v>17.399999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="V14">
-        <v>0.24</v>
+        <v>133.94</v>
       </c>
       <c r="W14">
-        <v>133.94</v>
-      </c>
-      <c r="X14">
         <v>31.31</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -12811,67 +12772,64 @@
         <v>18.398</v>
       </c>
       <c r="E15">
-        <v>0.36666666666666697</v>
+        <v>9.49</v>
       </c>
       <c r="F15">
-        <v>29.2007692307692</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="G15">
-        <v>1.7050000000000001</v>
+        <v>13.8991666666667</v>
       </c>
       <c r="H15">
-        <v>0.23400000000000001</v>
+        <v>14.46</v>
       </c>
       <c r="I15">
-        <v>13.8991666666667</v>
+        <v>297.80636363636398</v>
       </c>
       <c r="J15">
-        <v>14.46</v>
+        <v>1.07</v>
       </c>
       <c r="K15">
-        <v>297.80636363636398</v>
+        <v>14.105</v>
       </c>
       <c r="L15">
-        <v>1.07</v>
+        <v>25.5</v>
       </c>
       <c r="M15">
-        <v>14.105</v>
+        <v>428.83384615384603</v>
       </c>
       <c r="N15">
-        <v>25.5</v>
+        <v>193.71250000000001</v>
       </c>
       <c r="O15">
-        <v>428.83384615384603</v>
+        <v>0.20624999999999999</v>
       </c>
       <c r="P15">
-        <v>193.71250000000001</v>
+        <v>1.81666666666667</v>
       </c>
       <c r="Q15">
-        <v>1.81666666666667</v>
+        <v>11.5555555555556</v>
       </c>
       <c r="R15">
-        <v>11.5555555555556</v>
+        <v>14066.7928571429</v>
       </c>
       <c r="S15">
-        <v>14066.7928571429</v>
+        <v>48623.682307692303</v>
       </c>
       <c r="T15">
-        <v>48623.682307692303</v>
+        <v>25.7083333333333</v>
       </c>
       <c r="U15">
-        <v>25.7083333333333</v>
+        <v>15.178750000000001</v>
       </c>
       <c r="V15">
-        <v>15.178750000000001</v>
+        <v>120.086666666667</v>
       </c>
       <c r="W15">
-        <v>120.086666666667</v>
-      </c>
-      <c r="X15">
         <v>58.713333333333303</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -12888,64 +12846,61 @@
         <v>64</v>
       </c>
       <c r="F16">
-        <v>170.69333333333299</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
+        <v>0.15</v>
+      </c>
+      <c r="G16">
+        <v>13.37</v>
       </c>
       <c r="H16">
-        <v>0.15</v>
+        <v>7.74</v>
       </c>
       <c r="I16">
-        <v>13.37</v>
+        <v>2655.3</v>
       </c>
       <c r="J16">
-        <v>7.74</v>
-      </c>
-      <c r="K16">
-        <v>2655.3</v>
-      </c>
-      <c r="L16">
         <v>2.2200000000000002</v>
       </c>
-      <c r="M16" t="s">
-        <v>64</v>
+      <c r="K16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16">
+        <v>36.973333333333301</v>
       </c>
       <c r="N16" t="s">
         <v>64</v>
       </c>
-      <c r="O16">
-        <v>36.973333333333301</v>
+      <c r="O16" t="s">
+        <v>64</v>
       </c>
       <c r="P16" t="s">
         <v>64</v>
       </c>
-      <c r="Q16" t="s">
-        <v>64</v>
+      <c r="Q16">
+        <v>18</v>
       </c>
       <c r="R16">
-        <v>18</v>
+        <v>759.47166666666703</v>
       </c>
       <c r="S16">
-        <v>759.47166666666703</v>
-      </c>
-      <c r="T16">
         <v>18398.53</v>
       </c>
-      <c r="U16" t="s">
-        <v>64</v>
-      </c>
-      <c r="V16">
+      <c r="T16" t="s">
+        <v>64</v>
+      </c>
+      <c r="U16">
         <v>160.35499999999999</v>
       </c>
+      <c r="V16" t="s">
+        <v>64</v>
+      </c>
       <c r="W16" t="s">
         <v>64</v>
       </c>
-      <c r="X16" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -12958,68 +12913,65 @@
       <c r="D17">
         <v>15.87</v>
       </c>
-      <c r="E17" t="s">
-        <v>64</v>
+      <c r="E17">
+        <v>11.285</v>
       </c>
       <c r="F17">
-        <v>28.473333333333301</v>
+        <v>0.19</v>
       </c>
       <c r="G17">
-        <v>1.53</v>
-      </c>
-      <c r="H17">
-        <v>0.19</v>
+        <v>13.466666666666701</v>
+      </c>
+      <c r="H17" t="s">
+        <v>64</v>
       </c>
       <c r="I17">
-        <v>13.466666666666701</v>
-      </c>
-      <c r="J17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17">
         <v>0.83</v>
       </c>
-      <c r="L17">
+      <c r="J17">
         <v>2.62</v>
       </c>
-      <c r="M17" t="s">
-        <v>64</v>
+      <c r="K17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17">
+        <v>394.46</v>
       </c>
       <c r="N17" t="s">
         <v>64</v>
       </c>
       <c r="O17">
-        <v>394.46</v>
+        <v>0.215</v>
       </c>
       <c r="P17" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" t="s">
-        <v>64</v>
+      <c r="Q17">
+        <v>16</v>
       </c>
       <c r="R17">
-        <v>16</v>
+        <v>2666.88</v>
       </c>
       <c r="S17">
-        <v>2666.88</v>
+        <v>71551.126666666707</v>
       </c>
       <c r="T17">
-        <v>71551.126666666707</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="U17">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="V17">
         <v>119.41</v>
       </c>
-      <c r="W17" t="s">
-        <v>64</v>
-      </c>
-      <c r="X17">
+      <c r="V17" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17">
         <v>50.67</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -13032,38 +12984,38 @@
       <c r="D18">
         <v>15.07</v>
       </c>
-      <c r="E18" t="s">
-        <v>64</v>
+      <c r="E18">
+        <v>87.28</v>
       </c>
       <c r="F18">
-        <v>557.42999999999995</v>
+        <v>0.37</v>
       </c>
       <c r="G18">
-        <v>37.619999999999997</v>
+        <v>2.54</v>
       </c>
       <c r="H18">
-        <v>0.37</v>
+        <v>10.36</v>
       </c>
       <c r="I18">
-        <v>2.54</v>
+        <v>2200</v>
       </c>
       <c r="J18">
-        <v>10.36</v>
+        <v>0.69</v>
       </c>
       <c r="K18">
-        <v>2200</v>
-      </c>
-      <c r="L18">
-        <v>0.69</v>
+        <v>10.29</v>
+      </c>
+      <c r="L18" t="s">
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>10.29</v>
+        <v>80.436666666666696</v>
       </c>
       <c r="N18" t="s">
         <v>64</v>
       </c>
-      <c r="O18">
-        <v>80.436666666666696</v>
+      <c r="O18" t="s">
+        <v>64</v>
       </c>
       <c r="P18" t="s">
         <v>64</v>
@@ -13071,29 +13023,26 @@
       <c r="Q18" t="s">
         <v>64</v>
       </c>
-      <c r="R18" t="s">
-        <v>64</v>
+      <c r="R18">
+        <v>3.2425000000000002</v>
       </c>
       <c r="S18">
-        <v>3.2425000000000002</v>
-      </c>
-      <c r="T18">
         <v>3480.05</v>
       </c>
+      <c r="T18" t="s">
+        <v>64</v>
+      </c>
       <c r="U18" t="s">
         <v>64</v>
       </c>
       <c r="V18" t="s">
         <v>64</v>
       </c>
-      <c r="W18" t="s">
-        <v>64</v>
-      </c>
-      <c r="X18">
+      <c r="W18">
         <v>12.72</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -13106,68 +13055,65 @@
       <c r="D19">
         <v>15.75</v>
       </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19">
-        <v>38.125</v>
-      </c>
-      <c r="G19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" t="s">
-        <v>64</v>
+      <c r="E19">
+        <v>0.53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19">
+        <v>5.01</v>
+      </c>
+      <c r="H19">
+        <v>8.33</v>
       </c>
       <c r="I19">
-        <v>5.01</v>
-      </c>
-      <c r="J19">
-        <v>8.33</v>
-      </c>
-      <c r="K19">
         <v>1309.98</v>
       </c>
+      <c r="J19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" t="s">
+        <v>64</v>
+      </c>
       <c r="L19" t="s">
         <v>64</v>
       </c>
-      <c r="M19" t="s">
-        <v>64</v>
+      <c r="M19">
+        <v>1781.77</v>
       </c>
       <c r="N19" t="s">
         <v>64</v>
       </c>
       <c r="O19">
-        <v>1781.77</v>
-      </c>
-      <c r="P19" t="s">
-        <v>64</v>
+        <v>0.23</v>
+      </c>
+      <c r="P19">
+        <v>1.52</v>
       </c>
       <c r="Q19">
-        <v>1.52</v>
+        <v>24</v>
       </c>
       <c r="R19">
-        <v>24</v>
+        <v>0.38</v>
       </c>
       <c r="S19">
-        <v>0.38</v>
-      </c>
-      <c r="T19">
         <v>47961.165000000001</v>
       </c>
-      <c r="U19" t="s">
-        <v>64</v>
+      <c r="T19" t="s">
+        <v>64</v>
+      </c>
+      <c r="U19">
+        <v>59.78</v>
       </c>
       <c r="V19">
-        <v>59.78</v>
-      </c>
-      <c r="W19">
         <v>113.86</v>
       </c>
-      <c r="X19" t="s">
+      <c r="W19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -13180,38 +13126,38 @@
       <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="E20" t="s">
-        <v>64</v>
+      <c r="E20">
+        <v>21.86</v>
       </c>
       <c r="F20">
-        <v>2.4700000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="G20">
-        <v>1.53</v>
-      </c>
-      <c r="H20">
-        <v>0.19</v>
-      </c>
-      <c r="I20">
         <v>22.3</v>
       </c>
-      <c r="J20" t="s">
-        <v>64</v>
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20">
+        <v>2.62</v>
       </c>
       <c r="K20" t="s">
         <v>64</v>
       </c>
-      <c r="L20">
-        <v>2.62</v>
-      </c>
-      <c r="M20" t="s">
-        <v>64</v>
+      <c r="L20" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20">
+        <v>77.09</v>
       </c>
       <c r="N20" t="s">
         <v>64</v>
       </c>
       <c r="O20">
-        <v>77.09</v>
+        <v>0.21</v>
       </c>
       <c r="P20" t="s">
         <v>64</v>
@@ -13219,29 +13165,26 @@
       <c r="Q20" t="s">
         <v>64</v>
       </c>
-      <c r="R20" t="s">
-        <v>64</v>
+      <c r="R20">
+        <v>0.14000000000000001</v>
       </c>
       <c r="S20">
-        <v>0.14000000000000001</v>
+        <v>163298.85999999999</v>
       </c>
       <c r="T20">
-        <v>163298.85999999999</v>
-      </c>
-      <c r="U20">
         <v>19.399999999999999</v>
       </c>
+      <c r="U20" t="s">
+        <v>64</v>
+      </c>
       <c r="V20" t="s">
         <v>64</v>
       </c>
-      <c r="W20" t="s">
-        <v>64</v>
-      </c>
-      <c r="X20">
+      <c r="W20">
         <v>50.67</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -13254,68 +13197,65 @@
       <c r="D21">
         <v>24.585000000000001</v>
       </c>
-      <c r="E21" t="s">
-        <v>64</v>
+      <c r="E21">
+        <v>40.840000000000003</v>
       </c>
       <c r="F21">
-        <v>176.10333333333301</v>
+        <v>0.18</v>
       </c>
       <c r="G21">
-        <v>0.52</v>
+        <v>11.125</v>
       </c>
       <c r="H21">
-        <v>0.18</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I21">
-        <v>11.125</v>
+        <v>2750.6</v>
       </c>
       <c r="J21">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K21">
-        <v>2750.6</v>
-      </c>
-      <c r="L21">
         <v>1.58</v>
       </c>
-      <c r="M21" t="s">
-        <v>64</v>
+      <c r="K21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21">
+        <v>49.64</v>
       </c>
       <c r="N21" t="s">
         <v>64</v>
       </c>
-      <c r="O21">
-        <v>49.64</v>
+      <c r="O21" t="s">
+        <v>64</v>
       </c>
       <c r="P21" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" t="s">
-        <v>64</v>
+      <c r="Q21">
+        <v>16</v>
       </c>
       <c r="R21">
-        <v>16</v>
+        <v>4104.3980000000001</v>
       </c>
       <c r="S21">
-        <v>4104.3980000000001</v>
-      </c>
-      <c r="T21">
         <v>16630.973333333299</v>
       </c>
-      <c r="U21" t="s">
-        <v>64</v>
-      </c>
-      <c r="V21">
+      <c r="T21" t="s">
+        <v>64</v>
+      </c>
+      <c r="U21">
         <v>0.38</v>
       </c>
-      <c r="W21" t="s">
-        <v>64</v>
-      </c>
-      <c r="X21">
+      <c r="V21" t="s">
+        <v>64</v>
+      </c>
+      <c r="W21">
         <v>36.25</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -13329,67 +13269,64 @@
         <v>19.12</v>
       </c>
       <c r="E22">
-        <v>0.56000000000000005</v>
+        <v>13.35</v>
       </c>
       <c r="F22">
-        <v>69.069999999999993</v>
+        <v>0.25</v>
       </c>
       <c r="G22">
-        <v>3.085</v>
+        <v>13.286</v>
       </c>
       <c r="H22">
-        <v>0.25</v>
+        <v>11.914999999999999</v>
       </c>
       <c r="I22">
-        <v>13.286</v>
+        <v>1164.818</v>
       </c>
       <c r="J22">
-        <v>11.914999999999999</v>
+        <v>1.5049999999999999</v>
       </c>
       <c r="K22">
-        <v>1164.818</v>
+        <v>7.14</v>
       </c>
       <c r="L22">
-        <v>1.5049999999999999</v>
+        <v>25.5</v>
       </c>
       <c r="M22">
-        <v>7.14</v>
+        <v>64.378</v>
       </c>
       <c r="N22">
-        <v>25.5</v>
+        <v>135.053333333333</v>
       </c>
       <c r="O22">
-        <v>64.378</v>
+        <v>0.163333333333333</v>
       </c>
       <c r="P22">
-        <v>135.053333333333</v>
+        <v>2.34</v>
       </c>
       <c r="Q22">
-        <v>2.34</v>
+        <v>4</v>
       </c>
       <c r="R22">
-        <v>4</v>
+        <v>16820.385999999999</v>
       </c>
       <c r="S22">
-        <v>16820.385999999999</v>
+        <v>108492.47749999999</v>
       </c>
       <c r="T22">
-        <v>108492.47749999999</v>
+        <v>17.7</v>
       </c>
       <c r="U22">
-        <v>17.7</v>
+        <v>79.239999999999995</v>
       </c>
       <c r="V22">
-        <v>79.239999999999995</v>
+        <v>235.96</v>
       </c>
       <c r="W22">
-        <v>235.96</v>
-      </c>
-      <c r="X22">
         <v>38.134999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -13405,65 +13342,62 @@
       <c r="E23" t="s">
         <v>64</v>
       </c>
-      <c r="F23">
-        <v>60.4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>64</v>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23">
+        <v>2.56</v>
       </c>
       <c r="H23" t="s">
         <v>64</v>
       </c>
       <c r="I23">
-        <v>2.56</v>
+        <v>0.25</v>
       </c>
       <c r="J23" t="s">
         <v>64</v>
       </c>
-      <c r="K23">
-        <v>0.25</v>
+      <c r="K23" t="s">
+        <v>64</v>
       </c>
       <c r="L23" t="s">
         <v>64</v>
       </c>
-      <c r="M23" t="s">
-        <v>64</v>
+      <c r="M23">
+        <v>1068.27</v>
       </c>
       <c r="N23" t="s">
         <v>64</v>
       </c>
-      <c r="O23">
-        <v>1068.27</v>
+      <c r="O23" t="s">
+        <v>64</v>
       </c>
       <c r="P23" t="s">
         <v>64</v>
       </c>
-      <c r="Q23" t="s">
-        <v>64</v>
+      <c r="Q23">
+        <v>24</v>
       </c>
       <c r="R23">
-        <v>24</v>
+        <v>0.12</v>
       </c>
       <c r="S23">
-        <v>0.12</v>
-      </c>
-      <c r="T23">
         <v>49581.33</v>
       </c>
-      <c r="U23" t="s">
-        <v>64</v>
-      </c>
-      <c r="V23">
+      <c r="T23" t="s">
+        <v>64</v>
+      </c>
+      <c r="U23">
         <v>119.41</v>
       </c>
+      <c r="V23" t="s">
+        <v>64</v>
+      </c>
       <c r="W23" t="s">
         <v>64</v>
       </c>
-      <c r="X23" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -13477,67 +13411,64 @@
         <v>21.265999999999998</v>
       </c>
       <c r="E24">
-        <v>0.51500000000000001</v>
+        <v>18.725999999999999</v>
       </c>
       <c r="F24">
-        <v>60.37</v>
+        <v>0.25</v>
       </c>
       <c r="G24">
-        <v>1.9450000000000001</v>
+        <v>9.73</v>
       </c>
       <c r="H24">
-        <v>0.25</v>
+        <v>13.953333333333299</v>
       </c>
       <c r="I24">
-        <v>9.73</v>
+        <v>33.292499999999997</v>
       </c>
       <c r="J24">
-        <v>13.953333333333299</v>
+        <v>1.19</v>
       </c>
       <c r="K24">
-        <v>33.292499999999997</v>
+        <v>10.29</v>
       </c>
       <c r="L24">
-        <v>1.19</v>
+        <v>25.5</v>
       </c>
       <c r="M24">
-        <v>10.29</v>
+        <v>444.68285714285702</v>
       </c>
       <c r="N24">
-        <v>25.5</v>
+        <v>180.04</v>
       </c>
       <c r="O24">
-        <v>444.68285714285702</v>
+        <v>0.2</v>
       </c>
       <c r="P24">
-        <v>180.04</v>
+        <v>1.61</v>
       </c>
       <c r="Q24">
-        <v>1.61</v>
+        <v>10</v>
       </c>
       <c r="R24">
-        <v>10</v>
+        <v>15088.998571428599</v>
       </c>
       <c r="S24">
-        <v>15088.998571428599</v>
+        <v>81677.455000000002</v>
       </c>
       <c r="T24">
-        <v>81677.455000000002</v>
+        <v>21.912500000000001</v>
       </c>
       <c r="U24">
-        <v>21.912500000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V24">
-        <v>0.28999999999999998</v>
+        <v>111.043333333333</v>
       </c>
       <c r="W24">
-        <v>111.043333333333</v>
-      </c>
-      <c r="X24">
         <v>43.515000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -13551,67 +13482,64 @@
         <v>18.503333333333298</v>
       </c>
       <c r="E25">
-        <v>0.47</v>
+        <v>10.0966666666667</v>
       </c>
       <c r="F25">
-        <v>25.157499999999999</v>
+        <v>0.21</v>
       </c>
       <c r="G25">
-        <v>1.0433333333333299</v>
+        <v>19.5966666666667</v>
       </c>
       <c r="H25">
-        <v>0.21</v>
+        <v>15.18</v>
       </c>
       <c r="I25">
-        <v>19.5966666666667</v>
+        <v>44.62</v>
       </c>
       <c r="J25">
-        <v>15.18</v>
+        <v>1.645</v>
       </c>
       <c r="K25">
-        <v>44.62</v>
+        <v>10.78</v>
       </c>
       <c r="L25">
-        <v>1.645</v>
+        <v>25.5</v>
       </c>
       <c r="M25">
-        <v>10.78</v>
+        <v>56.9925</v>
       </c>
       <c r="N25">
-        <v>25.5</v>
+        <v>268.27</v>
       </c>
       <c r="O25">
-        <v>56.9925</v>
+        <v>0.193333333333333</v>
       </c>
       <c r="P25">
-        <v>268.27</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="Q25">
-        <v>2.2250000000000001</v>
+        <v>8</v>
       </c>
       <c r="R25">
-        <v>8</v>
+        <v>14940.7066666667</v>
       </c>
       <c r="S25">
-        <v>14940.7066666667</v>
+        <v>28963.31</v>
       </c>
       <c r="T25">
-        <v>28963.31</v>
+        <v>28.392499999999998</v>
       </c>
       <c r="U25">
-        <v>28.392499999999998</v>
+        <v>0.18</v>
       </c>
       <c r="V25">
-        <v>0.18</v>
+        <v>91.564999999999998</v>
       </c>
       <c r="W25">
-        <v>91.564999999999998</v>
-      </c>
-      <c r="X25">
         <v>48.876666666666701</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -13625,67 +13553,64 @@
         <v>14.24</v>
       </c>
       <c r="E26">
-        <v>0.30499999999999999</v>
+        <v>17.573</v>
       </c>
       <c r="F26">
-        <v>220.618666666667</v>
+        <v>0.20857142857142899</v>
       </c>
       <c r="G26">
-        <v>7.0433333333333303</v>
+        <v>17.871666666666702</v>
       </c>
       <c r="H26">
-        <v>0.20857142857142899</v>
+        <v>14.654</v>
       </c>
       <c r="I26">
-        <v>17.871666666666702</v>
+        <v>358.428181818182</v>
       </c>
       <c r="J26">
-        <v>14.654</v>
+        <v>5.99714285714286</v>
       </c>
       <c r="K26">
-        <v>358.428181818182</v>
-      </c>
-      <c r="L26">
-        <v>5.99714285714286</v>
+        <v>12.8333333333333</v>
+      </c>
+      <c r="L26" t="s">
+        <v>64</v>
       </c>
       <c r="M26">
-        <v>12.8333333333333</v>
-      </c>
-      <c r="N26" t="s">
-        <v>64</v>
+        <v>94.054374999999993</v>
+      </c>
+      <c r="N26">
+        <v>365.96499999999997</v>
       </c>
       <c r="O26">
-        <v>94.054374999999993</v>
+        <v>0.185555555555556</v>
       </c>
       <c r="P26">
-        <v>365.96499999999997</v>
+        <v>1.8674999999999999</v>
       </c>
       <c r="Q26">
-        <v>1.8674999999999999</v>
+        <v>12.4</v>
       </c>
       <c r="R26">
-        <v>12.4</v>
+        <v>2402.75</v>
       </c>
       <c r="S26">
-        <v>2402.75</v>
+        <v>77553.66</v>
       </c>
       <c r="T26">
-        <v>77553.66</v>
+        <v>29.47</v>
       </c>
       <c r="U26">
-        <v>29.47</v>
+        <v>0.23166666666666699</v>
       </c>
       <c r="V26">
-        <v>0.23166666666666699</v>
+        <v>127.6275</v>
       </c>
       <c r="W26">
-        <v>127.6275</v>
-      </c>
-      <c r="X26">
         <v>49.128333333333302</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -13699,67 +13624,64 @@
         <v>14.3825</v>
       </c>
       <c r="E27">
-        <v>0.47</v>
+        <v>12.6533333333333</v>
       </c>
       <c r="F27">
-        <v>135.94999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="G27">
-        <v>1.2350000000000001</v>
+        <v>19.7671428571429</v>
       </c>
       <c r="H27">
-        <v>0.19800000000000001</v>
+        <v>12.987500000000001</v>
       </c>
       <c r="I27">
-        <v>19.7671428571429</v>
+        <v>373.08600000000001</v>
       </c>
       <c r="J27">
-        <v>12.987500000000001</v>
-      </c>
-      <c r="K27">
-        <v>373.08600000000001</v>
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="K27" t="s">
+        <v>64</v>
       </c>
       <c r="L27">
-        <v>2.1539999999999999</v>
-      </c>
-      <c r="M27" t="s">
-        <v>64</v>
+        <v>25.5</v>
+      </c>
+      <c r="M27">
+        <v>422.97</v>
       </c>
       <c r="N27">
-        <v>25.5</v>
+        <v>358.47500000000002</v>
       </c>
       <c r="O27">
-        <v>422.97</v>
+        <v>0.18333333333333299</v>
       </c>
       <c r="P27">
-        <v>358.47500000000002</v>
+        <v>1.75</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>7.0774999999999997</v>
       </c>
       <c r="R27">
-        <v>7.0774999999999997</v>
+        <v>11449.54</v>
       </c>
       <c r="S27">
-        <v>11449.54</v>
+        <v>45815.844285714302</v>
       </c>
       <c r="T27">
-        <v>45815.844285714302</v>
+        <v>24.105</v>
       </c>
       <c r="U27">
-        <v>24.105</v>
+        <v>80.275000000000006</v>
       </c>
       <c r="V27">
-        <v>80.275000000000006</v>
+        <v>107.543333333333</v>
       </c>
       <c r="W27">
-        <v>107.543333333333</v>
-      </c>
-      <c r="X27">
         <v>44.927500000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -13773,67 +13695,64 @@
         <v>17.75</v>
       </c>
       <c r="E28">
-        <v>0.48</v>
+        <v>7.83</v>
       </c>
       <c r="F28">
-        <v>184.18799999999999</v>
+        <v>0.22</v>
       </c>
       <c r="G28">
-        <v>4.3324999999999996</v>
+        <v>12.7028571428571</v>
       </c>
       <c r="H28">
-        <v>0.22</v>
+        <v>13.7475</v>
       </c>
       <c r="I28">
-        <v>12.7028571428571</v>
+        <v>484.9325</v>
       </c>
       <c r="J28">
-        <v>13.7475</v>
+        <v>28.27</v>
       </c>
       <c r="K28">
-        <v>484.9325</v>
-      </c>
-      <c r="L28">
-        <v>28.27</v>
+        <v>9.64</v>
+      </c>
+      <c r="L28" t="s">
+        <v>64</v>
       </c>
       <c r="M28">
-        <v>9.64</v>
-      </c>
-      <c r="N28" t="s">
-        <v>64</v>
+        <v>273.50272727272699</v>
+      </c>
+      <c r="N28">
+        <v>146.65333333333299</v>
       </c>
       <c r="O28">
-        <v>273.50272727272699</v>
+        <v>0.21333333333333299</v>
       </c>
       <c r="P28">
-        <v>146.65333333333299</v>
+        <v>1.55</v>
       </c>
       <c r="Q28">
-        <v>1.55</v>
+        <v>11.3966666666667</v>
       </c>
       <c r="R28">
-        <v>11.3966666666667</v>
+        <v>1702.74909090909</v>
       </c>
       <c r="S28">
-        <v>1702.74909090909</v>
+        <v>133851.79555555599</v>
       </c>
       <c r="T28">
-        <v>133851.79555555599</v>
+        <v>25.8028571428571</v>
       </c>
       <c r="U28">
-        <v>25.8028571428571</v>
+        <v>0.26</v>
       </c>
       <c r="V28">
-        <v>0.26</v>
+        <v>109.435</v>
       </c>
       <c r="W28">
-        <v>109.435</v>
-      </c>
-      <c r="X28">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -13846,68 +13765,65 @@
       <c r="D29">
         <v>16.0566666666667</v>
       </c>
-      <c r="E29" t="s">
-        <v>64</v>
+      <c r="E29">
+        <v>49.78</v>
       </c>
       <c r="F29">
-        <v>296.63</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="G29">
-        <v>19.649999999999999</v>
+        <v>14.733333333333301</v>
       </c>
       <c r="H29">
-        <v>0.266666666666667</v>
+        <v>11.81</v>
       </c>
       <c r="I29">
-        <v>14.733333333333301</v>
+        <v>1650.2633333333299</v>
       </c>
       <c r="J29">
-        <v>11.81</v>
-      </c>
-      <c r="K29">
-        <v>1650.2633333333299</v>
+        <v>1.36333333333333</v>
+      </c>
+      <c r="K29" t="s">
+        <v>64</v>
       </c>
       <c r="L29">
-        <v>1.36333333333333</v>
-      </c>
-      <c r="M29" t="s">
-        <v>64</v>
+        <v>25.5</v>
+      </c>
+      <c r="M29">
+        <v>62.18</v>
       </c>
       <c r="N29">
-        <v>25.5</v>
+        <v>260.77999999999997</v>
       </c>
       <c r="O29">
-        <v>62.18</v>
+        <v>0.18</v>
       </c>
       <c r="P29">
-        <v>260.77999999999997</v>
+        <v>2.34</v>
       </c>
       <c r="Q29">
-        <v>2.34</v>
+        <v>4</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>16816.126</v>
       </c>
       <c r="S29">
-        <v>16816.126</v>
+        <v>1746301.48</v>
       </c>
       <c r="T29">
-        <v>1746301.48</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="U29">
-        <v>19.100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="V29">
-        <v>0.38</v>
+        <v>117.88</v>
       </c>
       <c r="W29">
-        <v>117.88</v>
-      </c>
-      <c r="X29">
         <v>16.335000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -13921,67 +13837,64 @@
         <v>12.62</v>
       </c>
       <c r="E30">
-        <v>0.47</v>
+        <v>6.585</v>
       </c>
       <c r="F30">
-        <v>126.925</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G30">
-        <v>1.0900000000000001</v>
+        <v>13.95</v>
       </c>
       <c r="H30">
-        <v>0.14000000000000001</v>
+        <v>12.795</v>
       </c>
       <c r="I30">
-        <v>13.95</v>
+        <v>65.739999999999995</v>
       </c>
       <c r="J30">
-        <v>12.795</v>
-      </c>
-      <c r="K30">
-        <v>65.739999999999995</v>
-      </c>
-      <c r="L30">
         <v>2.11</v>
       </c>
-      <c r="M30" t="s">
-        <v>64</v>
+      <c r="K30" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30">
+        <v>1325.17</v>
       </c>
       <c r="N30" t="s">
         <v>64</v>
       </c>
       <c r="O30">
-        <v>1325.17</v>
-      </c>
-      <c r="P30" t="s">
-        <v>64</v>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="P30">
+        <v>1.2450000000000001</v>
       </c>
       <c r="Q30">
-        <v>1.2450000000000001</v>
+        <v>15</v>
       </c>
       <c r="R30">
-        <v>15</v>
+        <v>2520.4324999999999</v>
       </c>
       <c r="S30">
-        <v>2520.4324999999999</v>
+        <v>9008.8700000000008</v>
       </c>
       <c r="T30">
-        <v>9008.8700000000008</v>
+        <v>28.4933333333333</v>
       </c>
       <c r="U30">
-        <v>28.4933333333333</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V30">
-        <v>0.28999999999999998</v>
+        <v>65.25</v>
       </c>
       <c r="W30">
-        <v>65.25</v>
-      </c>
-      <c r="X30">
         <v>61.54</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -13994,68 +13907,65 @@
       <c r="D31">
         <v>15.63</v>
       </c>
-      <c r="E31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31">
-        <v>15.85</v>
-      </c>
-      <c r="G31" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" t="s">
-        <v>64</v>
+      <c r="E31">
+        <v>0.53</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31">
+        <v>7.46</v>
+      </c>
+      <c r="H31">
+        <v>8.33</v>
       </c>
       <c r="I31">
-        <v>7.46</v>
-      </c>
-      <c r="J31">
-        <v>8.33</v>
-      </c>
-      <c r="K31">
         <v>2619.71</v>
       </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" t="s">
+        <v>64</v>
+      </c>
       <c r="L31" t="s">
         <v>64</v>
       </c>
-      <c r="M31" t="s">
-        <v>64</v>
+      <c r="M31">
+        <v>2495.27</v>
       </c>
       <c r="N31" t="s">
         <v>64</v>
       </c>
       <c r="O31">
-        <v>2495.27</v>
-      </c>
-      <c r="P31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q31">
+        <v>0.23</v>
+      </c>
+      <c r="P31">
         <v>1.52</v>
       </c>
-      <c r="R31" t="s">
-        <v>64</v>
+      <c r="Q31" t="s">
+        <v>64</v>
+      </c>
+      <c r="R31">
+        <v>1.59</v>
       </c>
       <c r="S31">
-        <v>1.59</v>
-      </c>
-      <c r="T31">
         <v>46341</v>
       </c>
-      <c r="U31" t="s">
-        <v>64</v>
+      <c r="T31" t="s">
+        <v>64</v>
+      </c>
+      <c r="U31">
+        <v>0.15</v>
       </c>
       <c r="V31">
-        <v>0.15</v>
-      </c>
-      <c r="W31">
         <v>113.86</v>
       </c>
-      <c r="X31" t="s">
+      <c r="W31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -14068,68 +13978,65 @@
       <c r="D32">
         <v>15.63</v>
       </c>
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32">
-        <v>12.6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" t="s">
-        <v>64</v>
+      <c r="E32">
+        <v>0.53</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32">
+        <v>4.585</v>
+      </c>
+      <c r="H32">
+        <v>7.5049999999999999</v>
       </c>
       <c r="I32">
-        <v>4.585</v>
-      </c>
-      <c r="J32">
-        <v>7.5049999999999999</v>
-      </c>
-      <c r="K32">
         <v>2589.855</v>
       </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" t="s">
+        <v>64</v>
+      </c>
       <c r="L32" t="s">
         <v>64</v>
       </c>
-      <c r="M32" t="s">
-        <v>64</v>
+      <c r="M32">
+        <v>1263.0650000000001</v>
       </c>
       <c r="N32" t="s">
         <v>64</v>
       </c>
       <c r="O32">
-        <v>1263.0650000000001</v>
-      </c>
-      <c r="P32" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q32">
+        <v>0.23</v>
+      </c>
+      <c r="P32">
         <v>1.52</v>
       </c>
-      <c r="R32" t="s">
-        <v>64</v>
+      <c r="Q32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R32">
+        <v>1.3</v>
       </c>
       <c r="S32">
-        <v>1.3</v>
-      </c>
-      <c r="T32">
         <v>27248.834999999999</v>
       </c>
-      <c r="U32" t="s">
-        <v>64</v>
+      <c r="T32" t="s">
+        <v>64</v>
+      </c>
+      <c r="U32">
+        <v>0.15</v>
       </c>
       <c r="V32">
-        <v>0.15</v>
-      </c>
-      <c r="W32">
         <v>113.86</v>
       </c>
-      <c r="X32" t="s">
+      <c r="W32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -14142,68 +14049,65 @@
       <c r="D33">
         <v>13.555</v>
       </c>
-      <c r="E33" t="s">
-        <v>64</v>
+      <c r="E33">
+        <v>0.53</v>
       </c>
       <c r="F33">
-        <v>153.61600000000001</v>
-      </c>
-      <c r="G33" t="s">
-        <v>64</v>
+        <v>0.15</v>
+      </c>
+      <c r="G33">
+        <v>10.0666666666667</v>
       </c>
       <c r="H33">
-        <v>0.15</v>
+        <v>7.9366666666666701</v>
       </c>
       <c r="I33">
-        <v>10.0666666666667</v>
+        <v>2643.4366666666701</v>
       </c>
       <c r="J33">
-        <v>7.9366666666666701</v>
-      </c>
-      <c r="K33">
-        <v>2643.4366666666701</v>
-      </c>
-      <c r="L33">
         <v>2.2200000000000002</v>
       </c>
-      <c r="M33" t="s">
-        <v>64</v>
+      <c r="K33" t="s">
+        <v>64</v>
+      </c>
+      <c r="L33" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33">
+        <v>529.92200000000003</v>
       </c>
       <c r="N33" t="s">
         <v>64</v>
       </c>
       <c r="O33">
-        <v>529.92200000000003</v>
-      </c>
-      <c r="P33" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q33">
+        <v>0.23</v>
+      </c>
+      <c r="P33">
         <v>1.52</v>
       </c>
-      <c r="R33" t="s">
-        <v>64</v>
+      <c r="Q33" t="s">
+        <v>64</v>
+      </c>
+      <c r="R33">
+        <v>2.4849999999999999</v>
       </c>
       <c r="S33">
-        <v>2.4849999999999999</v>
-      </c>
-      <c r="T33">
         <v>28657.903999999999</v>
       </c>
-      <c r="U33" t="s">
-        <v>64</v>
+      <c r="T33" t="s">
+        <v>64</v>
+      </c>
+      <c r="U33">
+        <v>0.26500000000000001</v>
       </c>
       <c r="V33">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="W33">
         <v>113.86</v>
       </c>
-      <c r="X33" t="s">
+      <c r="W33" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -14216,68 +14120,65 @@
       <c r="D34">
         <v>15.87</v>
       </c>
-      <c r="E34" t="s">
-        <v>64</v>
+      <c r="E34">
+        <v>0.8</v>
       </c>
       <c r="F34">
-        <v>200.77</v>
-      </c>
-      <c r="G34" t="s">
-        <v>64</v>
+        <v>0.22</v>
+      </c>
+      <c r="G34">
+        <v>10.88</v>
       </c>
       <c r="H34">
-        <v>0.22</v>
+        <v>10.09</v>
       </c>
       <c r="I34">
-        <v>10.88</v>
+        <v>865.99</v>
       </c>
       <c r="J34">
-        <v>10.09</v>
-      </c>
-      <c r="K34">
-        <v>865.99</v>
-      </c>
-      <c r="L34">
         <v>0.47</v>
       </c>
-      <c r="M34" t="s">
-        <v>64</v>
+      <c r="K34" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" t="s">
+        <v>64</v>
+      </c>
+      <c r="M34">
+        <v>569.64</v>
       </c>
       <c r="N34" t="s">
         <v>64</v>
       </c>
       <c r="O34">
-        <v>569.64</v>
+        <v>0.21</v>
       </c>
       <c r="P34" t="s">
         <v>64</v>
       </c>
-      <c r="Q34" t="s">
-        <v>64</v>
+      <c r="Q34">
+        <v>12.154999999999999</v>
       </c>
       <c r="R34">
-        <v>12.154999999999999</v>
+        <v>1.2466666666666699</v>
       </c>
       <c r="S34">
-        <v>1.2466666666666699</v>
+        <v>44887.464999999997</v>
       </c>
       <c r="T34">
-        <v>44887.464999999997</v>
+        <v>26.015000000000001</v>
       </c>
       <c r="U34">
-        <v>26.015000000000001</v>
-      </c>
-      <c r="V34">
         <v>119.41</v>
       </c>
+      <c r="V34" t="s">
+        <v>64</v>
+      </c>
       <c r="W34" t="s">
         <v>64</v>
       </c>
-      <c r="X34" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -14290,68 +14191,65 @@
       <c r="D35">
         <v>15.75</v>
       </c>
-      <c r="E35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35">
-        <v>38.125</v>
-      </c>
-      <c r="G35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" t="s">
-        <v>64</v>
+      <c r="E35">
+        <v>0.53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35">
+        <v>5.01</v>
+      </c>
+      <c r="H35">
+        <v>8.33</v>
       </c>
       <c r="I35">
-        <v>5.01</v>
-      </c>
-      <c r="J35">
-        <v>8.33</v>
-      </c>
-      <c r="K35">
         <v>1309.98</v>
       </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" t="s">
+        <v>64</v>
+      </c>
       <c r="L35" t="s">
         <v>64</v>
       </c>
-      <c r="M35" t="s">
-        <v>64</v>
+      <c r="M35">
+        <v>1781.77</v>
       </c>
       <c r="N35" t="s">
         <v>64</v>
       </c>
       <c r="O35">
-        <v>1781.77</v>
-      </c>
-      <c r="P35" t="s">
-        <v>64</v>
+        <v>0.23</v>
+      </c>
+      <c r="P35">
+        <v>1.52</v>
       </c>
       <c r="Q35">
-        <v>1.52</v>
+        <v>24</v>
       </c>
       <c r="R35">
-        <v>24</v>
+        <v>0.38</v>
       </c>
       <c r="S35">
-        <v>0.38</v>
-      </c>
-      <c r="T35">
         <v>47961.165000000001</v>
       </c>
-      <c r="U35" t="s">
-        <v>64</v>
+      <c r="T35" t="s">
+        <v>64</v>
+      </c>
+      <c r="U35">
+        <v>59.78</v>
       </c>
       <c r="V35">
-        <v>59.78</v>
-      </c>
-      <c r="W35">
         <v>113.86</v>
       </c>
-      <c r="X35" t="s">
+      <c r="W35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -14365,67 +14263,64 @@
         <v>19.78</v>
       </c>
       <c r="E36">
-        <v>0.435</v>
+        <v>13.2633333333333</v>
       </c>
       <c r="F36">
-        <v>6.06</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="G36">
-        <v>0.95333333333333303</v>
+        <v>18.95</v>
       </c>
       <c r="H36">
-        <v>0.16500000000000001</v>
+        <v>10.65</v>
       </c>
       <c r="I36">
-        <v>18.95</v>
+        <v>899.46500000000003</v>
       </c>
       <c r="J36">
-        <v>10.65</v>
-      </c>
-      <c r="K36">
-        <v>899.46500000000003</v>
-      </c>
-      <c r="L36">
         <v>2.3650000000000002</v>
       </c>
-      <c r="M36" t="s">
-        <v>64</v>
-      </c>
-      <c r="N36" t="s">
-        <v>64</v>
+      <c r="K36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36">
+        <v>76.446666666666701</v>
+      </c>
+      <c r="N36">
+        <v>139.01</v>
       </c>
       <c r="O36">
-        <v>76.446666666666701</v>
+        <v>0.18</v>
       </c>
       <c r="P36">
-        <v>139.01</v>
+        <v>1.55</v>
       </c>
       <c r="Q36">
-        <v>1.55</v>
+        <v>11</v>
       </c>
       <c r="R36">
-        <v>11</v>
+        <v>8387.4500000000007</v>
       </c>
       <c r="S36">
-        <v>8387.4500000000007</v>
+        <v>62257.82</v>
       </c>
       <c r="T36">
-        <v>62257.82</v>
+        <v>25.733333333333299</v>
       </c>
       <c r="U36">
-        <v>25.733333333333299</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="V36">
-        <v>0.32500000000000001</v>
+        <v>65.25</v>
       </c>
       <c r="W36">
-        <v>65.25</v>
-      </c>
-      <c r="X36">
         <v>63.3466666666667</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -14439,67 +14334,64 @@
         <v>16.948</v>
       </c>
       <c r="E37">
-        <v>0.56000000000000005</v>
+        <v>24.28</v>
       </c>
       <c r="F37">
-        <v>345.514444444444</v>
+        <v>0.26</v>
       </c>
       <c r="G37">
-        <v>14.1566666666667</v>
+        <v>11.5025</v>
       </c>
       <c r="H37">
-        <v>0.26</v>
+        <v>13.2425</v>
       </c>
       <c r="I37">
-        <v>11.5025</v>
+        <v>819.43142857142902</v>
       </c>
       <c r="J37">
-        <v>13.2425</v>
+        <v>1.1775</v>
       </c>
       <c r="K37">
-        <v>819.43142857142902</v>
-      </c>
-      <c r="L37">
-        <v>1.1775</v>
+        <v>10.78</v>
+      </c>
+      <c r="L37" t="s">
+        <v>64</v>
       </c>
       <c r="M37">
-        <v>10.78</v>
-      </c>
-      <c r="N37" t="s">
-        <v>64</v>
+        <v>332.84333333333302</v>
+      </c>
+      <c r="N37">
+        <v>187.53</v>
       </c>
       <c r="O37">
-        <v>332.84333333333302</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="P37">
-        <v>187.53</v>
+        <v>0.38</v>
       </c>
       <c r="Q37">
-        <v>0.38</v>
+        <v>16</v>
       </c>
       <c r="R37">
-        <v>16</v>
+        <v>928.60444444444397</v>
       </c>
       <c r="S37">
-        <v>928.60444444444397</v>
+        <v>150525.185555556</v>
       </c>
       <c r="T37">
-        <v>150525.185555556</v>
+        <v>23.355</v>
       </c>
       <c r="U37">
-        <v>23.355</v>
+        <v>0.28749999999999998</v>
       </c>
       <c r="V37">
-        <v>0.28749999999999998</v>
+        <v>283</v>
       </c>
       <c r="W37">
-        <v>283</v>
-      </c>
-      <c r="X37">
         <v>44.726666666666702</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -14512,68 +14404,65 @@
       <c r="D38">
         <v>23.5966666666667</v>
       </c>
-      <c r="E38" t="s">
-        <v>64</v>
+      <c r="E38">
+        <v>26.56</v>
       </c>
       <c r="F38">
-        <v>148.01750000000001</v>
+        <v>0.21333333333333299</v>
       </c>
       <c r="G38">
-        <v>1.1000000000000001</v>
+        <v>14.293333333333299</v>
       </c>
       <c r="H38">
-        <v>0.21333333333333299</v>
+        <v>12.535</v>
       </c>
       <c r="I38">
-        <v>14.293333333333299</v>
+        <v>1375.395</v>
       </c>
       <c r="J38">
-        <v>12.535</v>
-      </c>
-      <c r="K38">
-        <v>1375.395</v>
+        <v>1.4466666666666701</v>
+      </c>
+      <c r="K38" t="s">
+        <v>64</v>
       </c>
       <c r="L38">
-        <v>1.4466666666666701</v>
-      </c>
-      <c r="M38" t="s">
-        <v>64</v>
+        <v>25.5</v>
+      </c>
+      <c r="M38">
+        <v>55.567500000000003</v>
       </c>
       <c r="N38">
-        <v>25.5</v>
+        <v>260.77999999999997</v>
       </c>
       <c r="O38">
-        <v>55.567500000000003</v>
+        <v>0.18</v>
       </c>
       <c r="P38">
-        <v>260.77999999999997</v>
+        <v>2.34</v>
       </c>
       <c r="Q38">
-        <v>2.34</v>
+        <v>9</v>
       </c>
       <c r="R38">
-        <v>9</v>
+        <v>25018.244999999999</v>
       </c>
       <c r="S38">
-        <v>25018.244999999999</v>
+        <v>32910.160000000003</v>
       </c>
       <c r="T38">
-        <v>32910.160000000003</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="U38">
-        <v>19.100000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="V38">
-        <v>0.38</v>
+        <v>117.88</v>
       </c>
       <c r="W38">
-        <v>117.88</v>
-      </c>
-      <c r="X38">
         <v>28.1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -14587,67 +14476,64 @@
         <v>24.648571428571401</v>
       </c>
       <c r="E39">
-        <v>0.4</v>
+        <v>11.824999999999999</v>
       </c>
       <c r="F39">
-        <v>115.993636363636</v>
+        <v>0.22750000000000001</v>
       </c>
       <c r="G39">
-        <v>0.97399999999999998</v>
+        <v>11.16375</v>
       </c>
       <c r="H39">
-        <v>0.22750000000000001</v>
+        <v>11.561999999999999</v>
       </c>
       <c r="I39">
-        <v>11.16375</v>
+        <v>933.45</v>
       </c>
       <c r="J39">
-        <v>11.561999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="K39">
-        <v>933.45</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="L39">
-        <v>1.17</v>
+        <v>25.5</v>
       </c>
       <c r="M39">
-        <v>8.9600000000000009</v>
+        <v>343.036363636364</v>
       </c>
       <c r="N39">
-        <v>25.5</v>
+        <v>180.1575</v>
       </c>
       <c r="O39">
-        <v>343.036363636364</v>
+        <v>0.17</v>
       </c>
       <c r="P39">
-        <v>180.1575</v>
+        <v>1.61666666666667</v>
       </c>
       <c r="Q39">
-        <v>1.61666666666667</v>
+        <v>7.6619999999999999</v>
       </c>
       <c r="R39">
-        <v>7.6619999999999999</v>
+        <v>11236.0523076923</v>
       </c>
       <c r="S39">
-        <v>11236.0523076923</v>
+        <v>58415.909090909103</v>
       </c>
       <c r="T39">
-        <v>58415.909090909103</v>
+        <v>20.734285714285701</v>
       </c>
       <c r="U39">
-        <v>20.734285714285701</v>
+        <v>47.634</v>
       </c>
       <c r="V39">
-        <v>47.634</v>
+        <v>223.91333333333299</v>
       </c>
       <c r="W39">
-        <v>223.91333333333299</v>
-      </c>
-      <c r="X39">
         <v>49.927999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -14663,65 +14549,62 @@
       <c r="E40" t="s">
         <v>64</v>
       </c>
-      <c r="F40">
-        <v>60.4</v>
-      </c>
-      <c r="G40" t="s">
-        <v>64</v>
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40">
+        <v>2.56</v>
       </c>
       <c r="H40" t="s">
         <v>64</v>
       </c>
       <c r="I40">
-        <v>2.56</v>
+        <v>0.25</v>
       </c>
       <c r="J40" t="s">
         <v>64</v>
       </c>
-      <c r="K40">
-        <v>0.25</v>
+      <c r="K40" t="s">
+        <v>64</v>
       </c>
       <c r="L40" t="s">
         <v>64</v>
       </c>
-      <c r="M40" t="s">
-        <v>64</v>
+      <c r="M40">
+        <v>1068.27</v>
       </c>
       <c r="N40" t="s">
         <v>64</v>
       </c>
-      <c r="O40">
-        <v>1068.27</v>
+      <c r="O40" t="s">
+        <v>64</v>
       </c>
       <c r="P40" t="s">
         <v>64</v>
       </c>
-      <c r="Q40" t="s">
-        <v>64</v>
+      <c r="Q40">
+        <v>24</v>
       </c>
       <c r="R40">
-        <v>24</v>
+        <v>1.33</v>
       </c>
       <c r="S40">
-        <v>1.33</v>
-      </c>
-      <c r="T40">
         <v>49581.33</v>
       </c>
-      <c r="U40" t="s">
-        <v>64</v>
-      </c>
-      <c r="V40">
+      <c r="T40" t="s">
+        <v>64</v>
+      </c>
+      <c r="U40">
         <v>119.41</v>
       </c>
+      <c r="V40" t="s">
+        <v>64</v>
+      </c>
       <c r="W40" t="s">
         <v>64</v>
       </c>
-      <c r="X40" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -14735,67 +14618,64 @@
         <v>16.63</v>
       </c>
       <c r="E41">
-        <v>0.56000000000000005</v>
+        <v>9.5066666666666695</v>
       </c>
       <c r="F41">
-        <v>390.72125</v>
+        <v>0.26</v>
       </c>
       <c r="G41">
-        <v>4.49</v>
+        <v>14.715999999999999</v>
       </c>
       <c r="H41">
-        <v>0.26</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I41">
-        <v>14.715999999999999</v>
+        <v>551.63400000000001</v>
       </c>
       <c r="J41">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="K41">
-        <v>551.63400000000001</v>
-      </c>
-      <c r="L41">
         <v>10.72</v>
       </c>
-      <c r="M41" t="s">
-        <v>64</v>
-      </c>
-      <c r="N41" t="s">
-        <v>64</v>
+      <c r="K41" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41">
+        <v>53.473750000000003</v>
+      </c>
+      <c r="N41">
+        <v>99.3</v>
       </c>
       <c r="O41">
-        <v>53.473750000000003</v>
+        <v>0.206666666666667</v>
       </c>
       <c r="P41">
-        <v>99.3</v>
+        <v>1.07</v>
       </c>
       <c r="Q41">
-        <v>1.07</v>
+        <v>12</v>
       </c>
       <c r="R41">
-        <v>12</v>
+        <v>250002.93222222201</v>
       </c>
       <c r="S41">
-        <v>250002.93222222201</v>
+        <v>131382.10888888899</v>
       </c>
       <c r="T41">
-        <v>131382.10888888899</v>
+        <v>15.3333333333333</v>
       </c>
       <c r="U41">
-        <v>15.3333333333333</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="V41">
-        <v>0.33500000000000002</v>
+        <v>181.69</v>
       </c>
       <c r="W41">
-        <v>181.69</v>
-      </c>
-      <c r="X41">
         <v>56.32</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -14808,68 +14688,65 @@
       <c r="D42">
         <v>15.48</v>
       </c>
-      <c r="E42" t="s">
-        <v>64</v>
+      <c r="E42">
+        <v>51.04</v>
       </c>
       <c r="F42">
-        <v>315.87</v>
+        <v>0.26</v>
       </c>
       <c r="G42">
-        <v>20.03</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="H42">
-        <v>0.26</v>
+        <v>10.5966666666667</v>
       </c>
       <c r="I42">
-        <v>9.4499999999999993</v>
+        <v>1935.4866666666701</v>
       </c>
       <c r="J42">
-        <v>10.5966666666667</v>
-      </c>
-      <c r="K42">
-        <v>1935.4866666666701</v>
-      </c>
-      <c r="L42">
         <v>1.4550000000000001</v>
       </c>
-      <c r="M42" t="s">
-        <v>64</v>
+      <c r="K42" t="s">
+        <v>64</v>
+      </c>
+      <c r="L42" t="s">
+        <v>64</v>
+      </c>
+      <c r="M42">
+        <v>76.290000000000006</v>
       </c>
       <c r="N42" t="s">
         <v>64</v>
       </c>
-      <c r="O42">
-        <v>76.290000000000006</v>
+      <c r="O42" t="s">
+        <v>64</v>
       </c>
       <c r="P42" t="s">
         <v>64</v>
       </c>
-      <c r="Q42" t="s">
-        <v>64</v>
+      <c r="Q42">
+        <v>6</v>
       </c>
       <c r="R42">
-        <v>6</v>
+        <v>1913.3616666666701</v>
       </c>
       <c r="S42">
-        <v>1913.3616666666701</v>
-      </c>
-      <c r="T42">
         <v>21821.466</v>
       </c>
-      <c r="U42" t="s">
-        <v>64</v>
-      </c>
-      <c r="V42">
+      <c r="T42" t="s">
+        <v>64</v>
+      </c>
+      <c r="U42">
         <v>0.38</v>
       </c>
-      <c r="W42" t="s">
-        <v>64</v>
-      </c>
-      <c r="X42">
+      <c r="V42" t="s">
+        <v>64</v>
+      </c>
+      <c r="W42">
         <v>44.305</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -14882,68 +14759,65 @@
       <c r="D43">
         <v>14.875</v>
       </c>
-      <c r="E43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43">
-        <v>150.05000000000001</v>
-      </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" t="s">
-        <v>64</v>
+      <c r="E43">
+        <v>0.68</v>
+      </c>
+      <c r="F43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43">
+        <v>2.77</v>
+      </c>
+      <c r="H43">
+        <v>11.5</v>
       </c>
       <c r="I43">
-        <v>2.77</v>
-      </c>
-      <c r="J43">
-        <v>11.5</v>
-      </c>
-      <c r="K43">
         <v>0.3</v>
       </c>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" t="s">
+        <v>64</v>
+      </c>
       <c r="L43" t="s">
         <v>64</v>
       </c>
-      <c r="M43" t="s">
-        <v>64</v>
+      <c r="M43">
+        <v>1818.78</v>
       </c>
       <c r="N43" t="s">
         <v>64</v>
       </c>
       <c r="O43">
-        <v>1818.78</v>
-      </c>
-      <c r="P43" t="s">
-        <v>64</v>
+        <v>0.26</v>
+      </c>
+      <c r="P43">
+        <v>0.38</v>
       </c>
       <c r="Q43">
-        <v>0.38</v>
+        <v>24</v>
       </c>
       <c r="R43">
-        <v>24</v>
+        <v>1.9125000000000001</v>
       </c>
       <c r="S43">
-        <v>1.9125000000000001</v>
+        <v>33691.31</v>
       </c>
       <c r="T43">
-        <v>33691.31</v>
+        <v>24.164999999999999</v>
       </c>
       <c r="U43">
-        <v>24.164999999999999</v>
-      </c>
-      <c r="V43">
         <v>59.88</v>
       </c>
+      <c r="V43" t="s">
+        <v>64</v>
+      </c>
       <c r="W43" t="s">
         <v>64</v>
       </c>
-      <c r="X43" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>105</v>
       </c>
@@ -14957,67 +14831,64 @@
         <v>18.227499999999999</v>
       </c>
       <c r="E44">
-        <v>0.56000000000000005</v>
+        <v>8.3260000000000005</v>
       </c>
       <c r="F44">
-        <v>113.368333333333</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G44">
-        <v>3.085</v>
+        <v>9.8916666666666693</v>
       </c>
       <c r="H44">
-        <v>0.28999999999999998</v>
+        <v>10.574</v>
       </c>
       <c r="I44">
-        <v>9.8916666666666693</v>
+        <v>1152.2466666666701</v>
       </c>
       <c r="J44">
-        <v>10.574</v>
-      </c>
-      <c r="K44">
-        <v>1152.2466666666701</v>
+        <v>0.72666666666666702</v>
+      </c>
+      <c r="K44" t="s">
+        <v>64</v>
       </c>
       <c r="L44">
-        <v>0.72666666666666702</v>
-      </c>
-      <c r="M44" t="s">
-        <v>64</v>
+        <v>25.5</v>
+      </c>
+      <c r="M44">
+        <v>894.79</v>
       </c>
       <c r="N44">
-        <v>25.5</v>
+        <v>180.04</v>
       </c>
       <c r="O44">
-        <v>894.79</v>
+        <v>0.222</v>
       </c>
       <c r="P44">
-        <v>180.04</v>
+        <v>1.41333333333333</v>
       </c>
       <c r="Q44">
-        <v>1.41333333333333</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="R44">
-        <v>2.1549999999999998</v>
+        <v>12011.5885714286</v>
       </c>
       <c r="S44">
-        <v>12011.5885714286</v>
+        <v>81878.98</v>
       </c>
       <c r="T44">
-        <v>81878.98</v>
+        <v>17.324999999999999</v>
       </c>
       <c r="U44">
-        <v>17.324999999999999</v>
+        <v>0.26333333333333298</v>
       </c>
       <c r="V44">
-        <v>0.26333333333333298</v>
+        <v>127.246666666667</v>
       </c>
       <c r="W44">
-        <v>127.246666666667</v>
-      </c>
-      <c r="X44">
         <v>38.134999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -15031,67 +14902,64 @@
         <v>27.03</v>
       </c>
       <c r="E45">
-        <v>0.56000000000000005</v>
+        <v>26.82</v>
       </c>
       <c r="F45">
-        <v>97.135000000000005</v>
+        <v>0.28666666666666701</v>
       </c>
       <c r="G45">
-        <v>2.23</v>
+        <v>9.74</v>
       </c>
       <c r="H45">
-        <v>0.28666666666666701</v>
+        <v>16.27</v>
       </c>
       <c r="I45">
-        <v>9.74</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="J45">
-        <v>16.27</v>
-      </c>
-      <c r="K45">
-        <v>0.84499999999999997</v>
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="K45" t="s">
+        <v>64</v>
       </c>
       <c r="L45">
-        <v>0.88333333333333297</v>
-      </c>
-      <c r="M45" t="s">
-        <v>64</v>
+        <v>25.5</v>
+      </c>
+      <c r="M45">
+        <v>77.319999999999993</v>
       </c>
       <c r="N45">
-        <v>25.5</v>
+        <v>180.04</v>
       </c>
       <c r="O45">
-        <v>77.319999999999993</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="P45">
-        <v>180.04</v>
+        <v>2.34</v>
       </c>
       <c r="Q45">
-        <v>2.34</v>
+        <v>9</v>
       </c>
       <c r="R45">
-        <v>9</v>
+        <v>25017.717499999999</v>
       </c>
       <c r="S45">
-        <v>25017.717499999999</v>
+        <v>95410.58</v>
       </c>
       <c r="T45">
-        <v>95410.58</v>
+        <v>17.7</v>
       </c>
       <c r="U45">
-        <v>17.7</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V45">
-        <v>0.28999999999999998</v>
+        <v>133.94</v>
       </c>
       <c r="W45">
-        <v>133.94</v>
-      </c>
-      <c r="X45">
         <v>37.506666666666703</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>107</v>
       </c>
@@ -15104,68 +14972,65 @@
       <c r="D46">
         <v>15.35</v>
       </c>
-      <c r="E46" t="s">
-        <v>64</v>
+      <c r="E46">
+        <v>43.905000000000001</v>
       </c>
       <c r="F46">
-        <v>376.90333333333302</v>
+        <v>0.37</v>
       </c>
       <c r="G46">
-        <v>37.619999999999997</v>
+        <v>5</v>
       </c>
       <c r="H46">
-        <v>0.37</v>
+        <v>9.3450000000000006</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>2409.855</v>
       </c>
       <c r="J46">
-        <v>9.3450000000000006</v>
+        <v>0.69</v>
       </c>
       <c r="K46">
-        <v>2409.855</v>
-      </c>
-      <c r="L46">
-        <v>0.69</v>
+        <v>10.29</v>
+      </c>
+      <c r="L46" t="s">
+        <v>64</v>
       </c>
       <c r="M46">
-        <v>10.29</v>
+        <v>684.14499999999998</v>
       </c>
       <c r="N46" t="s">
         <v>64</v>
       </c>
       <c r="O46">
-        <v>684.14499999999998</v>
-      </c>
-      <c r="P46" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q46">
+        <v>0.23</v>
+      </c>
+      <c r="P46">
         <v>1.52</v>
       </c>
-      <c r="R46" t="s">
-        <v>64</v>
+      <c r="Q46" t="s">
+        <v>64</v>
+      </c>
+      <c r="R46">
+        <v>2.722</v>
       </c>
       <c r="S46">
-        <v>2.722</v>
-      </c>
-      <c r="T46">
         <v>17767.0333333333</v>
       </c>
-      <c r="U46" t="s">
-        <v>64</v>
+      <c r="T46" t="s">
+        <v>64</v>
+      </c>
+      <c r="U46">
+        <v>0.15</v>
       </c>
       <c r="V46">
-        <v>0.15</v>
+        <v>113.86</v>
       </c>
       <c r="W46">
-        <v>113.86</v>
-      </c>
-      <c r="X46">
         <v>12.72</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -15179,67 +15044,64 @@
         <v>15.861428571428601</v>
       </c>
       <c r="E47">
-        <v>0.30499999999999999</v>
+        <v>17.657499999999999</v>
       </c>
       <c r="F47">
-        <v>119.788181818182</v>
+        <v>0.222</v>
       </c>
       <c r="G47">
-        <v>8.4559999999999995</v>
+        <v>14.3888888888889</v>
       </c>
       <c r="H47">
-        <v>0.222</v>
+        <v>11.6733333333333</v>
       </c>
       <c r="I47">
-        <v>14.3888888888889</v>
+        <v>684.62750000000005</v>
       </c>
       <c r="J47">
-        <v>11.6733333333333</v>
+        <v>1.6279999999999999</v>
       </c>
       <c r="K47">
-        <v>684.62750000000005</v>
+        <v>14.105</v>
       </c>
       <c r="L47">
-        <v>1.6279999999999999</v>
+        <v>25.5</v>
       </c>
       <c r="M47">
-        <v>14.105</v>
+        <v>345.65909090909099</v>
       </c>
       <c r="N47">
-        <v>25.5</v>
+        <v>268.27</v>
       </c>
       <c r="O47">
-        <v>345.65909090909099</v>
+        <v>0.21285714285714299</v>
       </c>
       <c r="P47">
-        <v>268.27</v>
+        <v>1.49</v>
       </c>
       <c r="Q47">
-        <v>1.49</v>
+        <v>8</v>
       </c>
       <c r="R47">
-        <v>8</v>
+        <v>7472.71583333333</v>
       </c>
       <c r="S47">
-        <v>7472.71583333333</v>
+        <v>660542.19545454497</v>
       </c>
       <c r="T47">
-        <v>660542.19545454497</v>
+        <v>22.968</v>
       </c>
       <c r="U47">
-        <v>22.968</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="V47">
-        <v>0.23400000000000001</v>
+        <v>91.564999999999998</v>
       </c>
       <c r="W47">
-        <v>91.564999999999998</v>
-      </c>
-      <c r="X47">
         <v>42.003999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -15252,38 +15114,38 @@
       <c r="D48">
         <v>15.07</v>
       </c>
-      <c r="E48" t="s">
-        <v>64</v>
+      <c r="E48">
+        <v>87.28</v>
       </c>
       <c r="F48">
-        <v>826.07</v>
+        <v>0.37</v>
       </c>
       <c r="G48">
-        <v>37.619999999999997</v>
+        <v>2.54</v>
       </c>
       <c r="H48">
-        <v>0.37</v>
+        <v>10.36</v>
       </c>
       <c r="I48">
-        <v>2.54</v>
+        <v>2200</v>
       </c>
       <c r="J48">
-        <v>10.36</v>
-      </c>
-      <c r="K48">
-        <v>2200</v>
-      </c>
-      <c r="L48">
         <v>0.69</v>
       </c>
-      <c r="M48" t="s">
-        <v>64</v>
+      <c r="K48" t="s">
+        <v>64</v>
+      </c>
+      <c r="L48" t="s">
+        <v>64</v>
+      </c>
+      <c r="M48">
+        <v>58.84</v>
       </c>
       <c r="N48" t="s">
         <v>64</v>
       </c>
-      <c r="O48">
-        <v>58.84</v>
+      <c r="O48" t="s">
+        <v>64</v>
       </c>
       <c r="P48" t="s">
         <v>64</v>
@@ -15291,29 +15153,26 @@
       <c r="Q48" t="s">
         <v>64</v>
       </c>
-      <c r="R48" t="s">
-        <v>64</v>
+      <c r="R48">
+        <v>0.31</v>
       </c>
       <c r="S48">
-        <v>0.31</v>
-      </c>
-      <c r="T48">
         <v>6953.1</v>
       </c>
+      <c r="T48" t="s">
+        <v>64</v>
+      </c>
       <c r="U48" t="s">
         <v>64</v>
       </c>
       <c r="V48" t="s">
         <v>64</v>
       </c>
-      <c r="W48" t="s">
-        <v>64</v>
-      </c>
-      <c r="X48">
+      <c r="W48">
         <v>12.72</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -15327,67 +15186,64 @@
         <v>20.537500000000001</v>
       </c>
       <c r="E49">
-        <v>0.47</v>
+        <v>21.87</v>
       </c>
       <c r="F49">
-        <v>114.82833333333301</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="G49">
-        <v>1.09666666666667</v>
+        <v>16.95</v>
       </c>
       <c r="H49">
-        <v>0.19500000000000001</v>
+        <v>13.053333333333301</v>
       </c>
       <c r="I49">
-        <v>16.95</v>
+        <v>960.64</v>
       </c>
       <c r="J49">
-        <v>13.053333333333301</v>
-      </c>
-      <c r="K49">
-        <v>960.64</v>
+        <v>1.6125</v>
+      </c>
+      <c r="K49" t="s">
+        <v>64</v>
       </c>
       <c r="L49">
-        <v>1.6125</v>
-      </c>
-      <c r="M49" t="s">
-        <v>64</v>
+        <v>25.5</v>
+      </c>
+      <c r="M49">
+        <v>62.983333333333299</v>
       </c>
       <c r="N49">
-        <v>25.5</v>
+        <v>260.77999999999997</v>
       </c>
       <c r="O49">
-        <v>62.983333333333299</v>
+        <v>0.155</v>
       </c>
       <c r="P49">
-        <v>260.77999999999997</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="Q49">
-        <v>2.2250000000000001</v>
+        <v>10</v>
       </c>
       <c r="R49">
-        <v>10</v>
+        <v>15090.257142857099</v>
       </c>
       <c r="S49">
-        <v>15090.257142857099</v>
+        <v>1163555.0449999999</v>
       </c>
       <c r="T49">
-        <v>1163555.0449999999</v>
+        <v>28.125</v>
       </c>
       <c r="U49">
-        <v>28.125</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="V49">
-        <v>0.30499999999999999</v>
+        <v>91.564999999999998</v>
       </c>
       <c r="W49">
-        <v>91.564999999999998</v>
-      </c>
-      <c r="X49">
         <v>39.246666666666698</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -15401,67 +15257,64 @@
         <v>13.414999999999999</v>
       </c>
       <c r="E50">
-        <v>0.30499999999999999</v>
+        <v>33.423333333333296</v>
       </c>
       <c r="F50">
-        <v>179.536666666667</v>
+        <v>0.21333333333333299</v>
       </c>
       <c r="G50">
-        <v>19.355</v>
+        <v>11.7783333333333</v>
       </c>
       <c r="H50">
-        <v>0.21333333333333299</v>
+        <v>13.926</v>
       </c>
       <c r="I50">
-        <v>11.7783333333333</v>
+        <v>615.62666666666701</v>
       </c>
       <c r="J50">
-        <v>13.926</v>
+        <v>1.4466666666666701</v>
       </c>
       <c r="K50">
-        <v>615.62666666666701</v>
-      </c>
-      <c r="L50">
-        <v>1.4466666666666701</v>
+        <v>17.43</v>
+      </c>
+      <c r="L50" t="s">
+        <v>64</v>
       </c>
       <c r="M50">
-        <v>17.43</v>
+        <v>332.82499999999999</v>
       </c>
       <c r="N50" t="s">
         <v>64</v>
       </c>
       <c r="O50">
-        <v>332.82499999999999</v>
-      </c>
-      <c r="P50" t="s">
-        <v>64</v>
+        <v>0.18</v>
+      </c>
+      <c r="P50">
+        <v>2.11</v>
       </c>
       <c r="Q50">
-        <v>2.11</v>
+        <v>17.3333333333333</v>
       </c>
       <c r="R50">
-        <v>17.3333333333333</v>
+        <v>2322.44</v>
       </c>
       <c r="S50">
-        <v>2322.44</v>
+        <v>17538.064999999999</v>
       </c>
       <c r="T50">
-        <v>17538.064999999999</v>
+        <v>31.06</v>
       </c>
       <c r="U50">
-        <v>31.06</v>
+        <v>39.9433333333333</v>
       </c>
       <c r="V50">
-        <v>39.9433333333333</v>
+        <v>65.25</v>
       </c>
       <c r="W50">
-        <v>65.25</v>
-      </c>
-      <c r="X50">
         <v>37.130000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -15474,68 +15327,65 @@
       <c r="D51">
         <v>13.88</v>
       </c>
-      <c r="E51" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51">
-        <v>239.7</v>
-      </c>
-      <c r="G51" t="s">
-        <v>64</v>
-      </c>
-      <c r="H51" t="s">
-        <v>64</v>
+      <c r="E51">
+        <v>0.68</v>
+      </c>
+      <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51">
+        <v>2.98</v>
+      </c>
+      <c r="H51">
+        <v>11.5</v>
       </c>
       <c r="I51">
-        <v>2.98</v>
-      </c>
-      <c r="J51">
-        <v>11.5</v>
-      </c>
-      <c r="K51">
         <v>0.35</v>
       </c>
+      <c r="J51" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" t="s">
+        <v>64</v>
+      </c>
       <c r="L51" t="s">
         <v>64</v>
       </c>
-      <c r="M51" t="s">
-        <v>64</v>
+      <c r="M51">
+        <v>2569.29</v>
       </c>
       <c r="N51" t="s">
         <v>64</v>
       </c>
       <c r="O51">
-        <v>2569.29</v>
-      </c>
-      <c r="P51" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q51">
+        <v>0.26</v>
+      </c>
+      <c r="P51">
         <v>0.38</v>
       </c>
-      <c r="R51" t="s">
-        <v>64</v>
+      <c r="Q51" t="s">
+        <v>64</v>
+      </c>
+      <c r="R51">
+        <v>1.68</v>
       </c>
       <c r="S51">
-        <v>1.68</v>
+        <v>17801.29</v>
       </c>
       <c r="T51">
-        <v>17801.29</v>
+        <v>15.1</v>
       </c>
       <c r="U51">
-        <v>15.1</v>
-      </c>
-      <c r="V51">
         <v>0.35</v>
       </c>
+      <c r="V51" t="s">
+        <v>64</v>
+      </c>
       <c r="W51" t="s">
         <v>64</v>
       </c>
-      <c r="X51" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -15551,8 +15401,8 @@
       <c r="E52" t="s">
         <v>64</v>
       </c>
-      <c r="F52">
-        <v>185.77</v>
+      <c r="F52" t="s">
+        <v>64</v>
       </c>
       <c r="G52" t="s">
         <v>64</v>
@@ -15572,44 +15422,41 @@
       <c r="L52" t="s">
         <v>64</v>
       </c>
-      <c r="M52" t="s">
-        <v>64</v>
+      <c r="M52">
+        <v>77.643333333333302</v>
       </c>
       <c r="N52" t="s">
         <v>64</v>
       </c>
-      <c r="O52">
-        <v>77.643333333333302</v>
+      <c r="O52" t="s">
+        <v>64</v>
       </c>
       <c r="P52" t="s">
         <v>64</v>
       </c>
-      <c r="Q52" t="s">
-        <v>64</v>
+      <c r="Q52">
+        <v>14</v>
       </c>
       <c r="R52">
-        <v>14</v>
+        <v>3706.6239999999998</v>
       </c>
       <c r="S52">
-        <v>3706.6239999999998</v>
+        <v>3424740.09</v>
       </c>
       <c r="T52">
-        <v>3424740.09</v>
-      </c>
-      <c r="U52">
         <v>21</v>
       </c>
+      <c r="U52" t="s">
+        <v>64</v>
+      </c>
       <c r="V52" t="s">
         <v>64</v>
       </c>
       <c r="W52" t="s">
         <v>64</v>
       </c>
-      <c r="X52" t="s">
-        <v>64</v>
-      </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>114</v>
       </c>
@@ -15623,67 +15470,64 @@
         <v>16.63</v>
       </c>
       <c r="E53">
-        <v>0.56000000000000005</v>
+        <v>27.34</v>
       </c>
       <c r="F53">
-        <v>130.6225</v>
+        <v>0.26</v>
       </c>
       <c r="G53">
-        <v>4.49</v>
+        <v>10.036666666666701</v>
       </c>
       <c r="H53">
-        <v>0.26</v>
+        <v>7.74</v>
       </c>
       <c r="I53">
-        <v>10.036666666666701</v>
+        <v>1770.7</v>
       </c>
       <c r="J53">
-        <v>7.74</v>
-      </c>
-      <c r="K53">
-        <v>1770.7</v>
-      </c>
-      <c r="L53">
         <v>1.375</v>
       </c>
-      <c r="M53" t="s">
-        <v>64</v>
-      </c>
-      <c r="N53" t="s">
-        <v>64</v>
+      <c r="K53" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" t="s">
+        <v>64</v>
+      </c>
+      <c r="M53">
+        <v>59.97</v>
+      </c>
+      <c r="N53">
+        <v>99.3</v>
       </c>
       <c r="O53">
-        <v>59.97</v>
-      </c>
-      <c r="P53">
-        <v>99.3</v>
+        <v>0.23</v>
+      </c>
+      <c r="P53" t="s">
+        <v>64</v>
       </c>
       <c r="Q53" t="s">
         <v>64</v>
       </c>
-      <c r="R53" t="s">
-        <v>64</v>
+      <c r="R53">
+        <v>2.7275</v>
       </c>
       <c r="S53">
-        <v>2.7275</v>
+        <v>88057.297500000001</v>
       </c>
       <c r="T53">
-        <v>88057.297500000001</v>
+        <v>16.3</v>
       </c>
       <c r="U53">
-        <v>16.3</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="V53">
-        <v>0.33500000000000002</v>
+        <v>150</v>
       </c>
       <c r="W53">
-        <v>150</v>
-      </c>
-      <c r="X53">
         <v>56.32</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>115</v>
       </c>
@@ -15697,63 +15541,60 @@
         <v>13.65</v>
       </c>
       <c r="E54">
-        <v>0.30499999999999999</v>
+        <v>24.545999999999999</v>
       </c>
       <c r="F54">
-        <v>196.35</v>
+        <v>0.211666666666667</v>
       </c>
       <c r="G54">
-        <v>13.4133333333333</v>
+        <v>14.5722222222222</v>
       </c>
       <c r="H54">
-        <v>0.211666666666667</v>
+        <v>12.916</v>
       </c>
       <c r="I54">
-        <v>14.5722222222222</v>
+        <v>782.53375000000005</v>
       </c>
       <c r="J54">
-        <v>12.916</v>
+        <v>6.2083333333333304</v>
       </c>
       <c r="K54">
-        <v>782.53375000000005</v>
-      </c>
-      <c r="L54">
-        <v>6.2083333333333304</v>
+        <v>17.43</v>
+      </c>
+      <c r="L54" t="s">
+        <v>64</v>
       </c>
       <c r="M54">
-        <v>17.43</v>
+        <v>221.18199999999999</v>
       </c>
       <c r="N54" t="s">
         <v>64</v>
       </c>
       <c r="O54">
-        <v>221.18199999999999</v>
-      </c>
-      <c r="P54" t="s">
-        <v>64</v>
+        <v>0.1825</v>
+      </c>
+      <c r="P54">
+        <v>1.59</v>
       </c>
       <c r="Q54">
-        <v>1.59</v>
+        <v>15</v>
       </c>
       <c r="R54">
-        <v>15</v>
+        <v>4607.9049999999997</v>
       </c>
       <c r="S54">
-        <v>4607.9049999999997</v>
+        <v>36564.383999999998</v>
       </c>
       <c r="T54">
-        <v>36564.383999999998</v>
+        <v>26.795000000000002</v>
       </c>
       <c r="U54">
-        <v>26.795000000000002</v>
+        <v>30.0425</v>
       </c>
       <c r="V54">
-        <v>30.0425</v>
+        <v>139.315</v>
       </c>
       <c r="W54">
-        <v>139.315</v>
-      </c>
-      <c r="X54">
         <v>41.643333333333302</v>
       </c>
     </row>
